--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\WS\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surendarana\Desktop\WorkSpace\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="RadioButton" sheetId="7" r:id="rId11"/>
     <sheet name="Mobile" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="933">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2817,12 +2817,24 @@
   </si>
   <si>
     <t>Acc_Installed_Less</t>
+  </si>
+  <si>
+    <t>//button[.='MOI Validation']</t>
+  </si>
+  <si>
+    <t>Cont_MoiValidation</t>
+  </si>
+  <si>
+    <t>//a[@title='Installed Assets']</t>
+  </si>
+  <si>
+    <t>Acc_validation_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -13480,8 +13492,8 @@
   <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32386,9 +32398,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35040,9 +35052,15 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>930</v>
+      </c>
+      <c r="B168" t="s">
+        <v>929</v>
+      </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Cont_MoiValidation");</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -40444,10 +40462,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G940"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42356,9 +42374,15 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>932</v>
+      </c>
+      <c r="B124" t="s">
+        <v>931</v>
+      </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Acc_validation_Name", getdata("Acc_validation_Name"));</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -54790,8 +54814,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surendarana\Desktop\WorkSpace\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,12 +25,12 @@
     <sheet name="RadioButton" sheetId="7" r:id="rId11"/>
     <sheet name="Mobile" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="930">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2819,22 +2819,13 @@
     <t>Acc_Installed_Less</t>
   </si>
   <si>
-    <t>//button[.='MOI Validation']</t>
-  </si>
-  <si>
-    <t>Cont_MoiValidation</t>
-  </si>
-  <si>
-    <t>//a[@title='Installed Assets']</t>
-  </si>
-  <si>
-    <t>Acc_validation_Name</t>
+    <t>//input[starts-with(@aria-label,'Cellular Phone #')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -13492,8 +13483,8 @@
   <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32399,8 +32390,8 @@
   <dimension ref="A1:G966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35052,15 +35043,9 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>930</v>
-      </c>
-      <c r="B168" t="s">
-        <v>929</v>
-      </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebButton.click("Cont_MoiValidation");</v>
+        <v/>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -40463,9 +40448,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40634,7 +40619,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>929</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -42374,15 +42359,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>932</v>
-      </c>
-      <c r="B124" t="s">
-        <v>931</v>
-      </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Browser.WebEdit.Set("Acc_validation_Name", getdata("Acc_validation_Name"));</v>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -54814,8 +54793,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="934">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2820,6 +2820,18 @@
   </si>
   <si>
     <t>//input[starts-with(@aria-label,'Cellular Phone #')]</t>
+  </si>
+  <si>
+    <t>Cont_MoiValidation</t>
+  </si>
+  <si>
+    <t>//button[.='MOI Validation']</t>
+  </si>
+  <si>
+    <t>Acc_validation_Name</t>
+  </si>
+  <si>
+    <t>//a[@title='Installed Assets']</t>
   </si>
 </sst>
 </file>
@@ -32391,7 +32403,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35034,7 +35046,7 @@
       <c r="A167" t="s">
         <v>928</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>927</v>
       </c>
       <c r="G167" s="4" t="str">
@@ -35043,9 +35055,15 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>930</v>
+      </c>
+      <c r="B168" t="s">
+        <v>931</v>
+      </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Cont_MoiValidation");</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -39882,7 +39900,7 @@
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
     <cfRule type="duplicateValues" dxfId="941" priority="386"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A168:B1048576 A167">
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B1048576">
     <cfRule type="duplicateValues" dxfId="940" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
@@ -39951,19 +39969,19 @@
   <conditionalFormatting sqref="A31:B35">
     <cfRule type="duplicateValues" dxfId="918" priority="805"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="917" priority="828"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="916" priority="831"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="915" priority="834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
     <cfRule type="duplicateValues" dxfId="914" priority="837"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B46:B49 B66:B67 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="913" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
@@ -39987,7 +40005,7 @@
   <conditionalFormatting sqref="A65">
     <cfRule type="duplicateValues" dxfId="906" priority="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B95:B99 B1:B17 B20:B26 B28:B67 B168:B1048576">
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="905" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
@@ -40059,7 +40077,7 @@
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G966">
     <cfRule type="duplicateValues" dxfId="882" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B17 B20:B26 B28:B99 B168:B1048576">
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="881" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
@@ -40074,7 +40092,7 @@
   <conditionalFormatting sqref="A100">
     <cfRule type="duplicateValues" dxfId="877" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B17 B20:B26 B28:B100 B168:B1048576">
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="876" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
@@ -40257,10 +40275,10 @@
   <conditionalFormatting sqref="A1:A126 A166:A1048576">
     <cfRule type="duplicateValues" dxfId="816" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A1:B126 A168:B1048576 A167">
+  <conditionalFormatting sqref="A1:B126 A166:B1048576">
     <cfRule type="duplicateValues" dxfId="815" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A168:B1048576 A167">
+  <conditionalFormatting sqref="A166:B1048576">
     <cfRule type="duplicateValues" dxfId="814" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
@@ -40284,7 +40302,7 @@
   <conditionalFormatting sqref="B127">
     <cfRule type="duplicateValues" dxfId="807" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B130 B168:B1048576">
+  <conditionalFormatting sqref="B1:B130 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="806" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
@@ -40311,10 +40329,10 @@
   <conditionalFormatting sqref="A131:A136">
     <cfRule type="duplicateValues" dxfId="798" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B166 A1:B136 A168:B1048576 A167">
+  <conditionalFormatting sqref="A1:B136 A166:B1048576">
     <cfRule type="duplicateValues" dxfId="797" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B136 B168:B1048576">
+  <conditionalFormatting sqref="B1:B136 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="796" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A136 A166:A1048576">
@@ -40344,7 +40362,7 @@
   <conditionalFormatting sqref="A137:A145">
     <cfRule type="duplicateValues" dxfId="787" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166 B1:B145 B168:B1048576">
+  <conditionalFormatting sqref="B1:B145 B166:B1048576">
     <cfRule type="duplicateValues" dxfId="786" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
@@ -40448,9 +40466,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42359,9 +42377,15 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>932</v>
+      </c>
+      <c r="B124" t="s">
+        <v>933</v>
+      </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Acc_validation_Name", getdata("Acc_validation_Name"));</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -13495,8 +13495,8 @@
   <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32403,7 +32403,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40465,7 +40465,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
@@ -47720,9 +47720,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:B23"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="942">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2832,6 +2832,30 @@
   </si>
   <si>
     <t>//a[@title='Installed Assets']</t>
+  </si>
+  <si>
+    <t>Manage_Add_On</t>
+  </si>
+  <si>
+    <t>//span[text()='Manage Add Ons']</t>
+  </si>
+  <si>
+    <t>//button[@title='Promotion Upgrades:Query']</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Promotion Name']</t>
+  </si>
+  <si>
+    <t>//button[@title='Promotion Upgrades:Go']</t>
+  </si>
+  <si>
+    <t>Promotion_Query</t>
+  </si>
+  <si>
+    <t>Promotion_Go</t>
+  </si>
+  <si>
+    <t>Promotion_name</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +3023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3041,11 +3065,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1049">
+  <dxfs count="1063">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9287,6 +9324,146 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11598,16 +11775,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19968,283 +20135,283 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1048" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1047" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1046" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1045" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1044" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1043" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1042" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1041" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1040" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1039" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1038" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1037" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1036" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1035" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1034" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1033" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1032" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1031" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1030" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1029" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1028" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1027" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1026" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1025" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1024" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1023" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1022" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1021" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1020" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1019" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1018" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1017" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1016" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1015" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1014" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1013" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1012" priority="2094"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="2094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1011" priority="2095"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="2095"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1010" priority="2096"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="2096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1009" priority="2098"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="2098"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1008" priority="2151"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="2151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1007" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="2152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1006" priority="2153"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="2153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1005" priority="2154"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="2154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1004" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1003" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B62">
-    <cfRule type="duplicateValues" dxfId="1002" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B62">
-    <cfRule type="duplicateValues" dxfId="1001" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="1000" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="999" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="998" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="997" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="996" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="995" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="994" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="993" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="992" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="991" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="990" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="989" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="988" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="987" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="986" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="985" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="984" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="983" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="982" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="981" priority="2418"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="2418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="980" priority="2419"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="2419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B71">
-    <cfRule type="duplicateValues" dxfId="979" priority="2420"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="2420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B71">
-    <cfRule type="duplicateValues" dxfId="978" priority="2421"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="2421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="977" priority="2448"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="2448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="976" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="975" priority="2462"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="2462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="974" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="2469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="973" priority="2471"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="2471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="972" priority="2477"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="2477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="971" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="970" priority="2484"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="2484"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="969" priority="2487"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="2487"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576">
-    <cfRule type="duplicateValues" dxfId="968" priority="2490"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="2490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B62">
-    <cfRule type="duplicateValues" dxfId="967" priority="2492"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="2492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B71 A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="966" priority="2495"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="965" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="964" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="963" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="962" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="961" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="960" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="959" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="958" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="957" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="956" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -26298,16 +26465,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32345,7 +32512,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32390,7 +32557,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32399,11 +32566,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G966"/>
+  <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34534,7 +34701,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="str">
-        <f t="shared" ref="G132:G195" si="2">IF(A132&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G132:G194" si="2">IF(A132&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A132&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("SMS");</v>
       </c>
     </row>
@@ -35067,21 +35234,39 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>935</v>
+      </c>
       <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Manage_Add_On");</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>939</v>
+      </c>
+      <c r="B170" t="s">
+        <v>936</v>
+      </c>
       <c r="G170" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Promotion_Query");</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>940</v>
+      </c>
+      <c r="B171" t="s">
+        <v>938</v>
+      </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Promotion_Go");</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -35224,13 +35409,13 @@
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G195:G258" si="3">IF(A195&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A195&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G196" s="4" t="str">
-        <f t="shared" ref="G196:G259" si="3">IF(A196&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A196&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -35608,13 +35793,13 @@
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G259:G322" si="4">IF(A259&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A259&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" s="4" t="str">
-        <f t="shared" ref="G260:G323" si="4">IF(A260&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A260&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -35992,13 +36177,13 @@
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G323" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G323:G386" si="5">IF(A323&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A323&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G324" s="4" t="str">
-        <f t="shared" ref="G324:G387" si="5">IF(A324&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A324&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -36376,13 +36561,13 @@
     </row>
     <row r="387" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G387" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G387:G450" si="6">IF(A387&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A387&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G388" s="4" t="str">
-        <f t="shared" ref="G388:G451" si="6">IF(A388&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A388&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -36760,13 +36945,13 @@
     </row>
     <row r="451" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G451" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G451:G514" si="7">IF(A451&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A451&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="452" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G452" s="4" t="str">
-        <f t="shared" ref="G452:G515" si="7">IF(A452&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A452&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -37144,13 +37329,13 @@
     </row>
     <row r="515" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G515" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G515:G578" si="8">IF(A515&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A515&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="516" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G516" s="4" t="str">
-        <f t="shared" ref="G516:G579" si="8">IF(A516&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A516&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -37528,13 +37713,13 @@
     </row>
     <row r="579" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G579" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G579:G642" si="9">IF(A579&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A579&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="580" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G580" s="4" t="str">
-        <f t="shared" ref="G580:G643" si="9">IF(A580&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A580&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -37912,13 +38097,13 @@
     </row>
     <row r="643" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G643" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G643:G706" si="10">IF(A643&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A643&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="644" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G644" s="4" t="str">
-        <f t="shared" ref="G644:G707" si="10">IF(A644&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A644&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -38296,13 +38481,13 @@
     </row>
     <row r="707" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G707" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G707:G770" si="11">IF(A707&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A707&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="708" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G708" s="4" t="str">
-        <f t="shared" ref="G708:G771" si="11">IF(A708&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A708&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -38680,13 +38865,13 @@
     </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G771:G834" si="12">IF(A771&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A771&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="772" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G772" s="4" t="str">
-        <f t="shared" ref="G772:G835" si="12">IF(A772&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A772&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -39064,13 +39249,13 @@
     </row>
     <row r="835" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G835" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G835:G898" si="13">IF(A835&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A835&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="836" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G836" s="4" t="str">
-        <f t="shared" ref="G836:G899" si="13">IF(A836&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A836&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -39448,13 +39633,13 @@
     </row>
     <row r="899" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G899" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G899:G962" si="14">IF(A899&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A899&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="900" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G900" s="4" t="str">
-        <f t="shared" ref="G900:G963" si="14">IF(A900&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A900&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -39832,13 +40017,13 @@
     </row>
     <row r="963" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G963" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G963:G965" si="15">IF(A963&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A963&amp;CHAR(34)&amp;");","")</f>
         <v/>
       </c>
     </row>
     <row r="964" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G964" s="4" t="str">
-        <f t="shared" ref="G964:G966" si="15">IF(A964&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A964&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -39848,612 +40033,606 @@
         <v/>
       </c>
     </row>
-    <row r="966" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G966" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="955" priority="429"/>
+  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="969" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="954" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="953" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="952" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="951" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="950" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="949" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="948" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="947" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="946" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="945" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="944" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="943" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="942" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="941" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="940" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="954" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="939" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="938" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="937" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="936" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="935" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="934" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="933" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="932" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="931" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="930" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="929" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="928" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="927" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="926" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="925" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="924" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="923" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="922" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="921" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="920" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="919" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="918" priority="805"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="917" priority="828"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="916" priority="831"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="915" priority="834"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="805"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="931" priority="828"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="930" priority="831"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="929" priority="834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="914" priority="837"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="913" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="837"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="927" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="912" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="911" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="910" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="909" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="908" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="907" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="906" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="905" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="919" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="904" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="903" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="902" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="901" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="915" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="900" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="1285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="899" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="1288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="898" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="897" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="896" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="895" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="894" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="893" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="892" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="891" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="890" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="889" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="888" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="887" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="886" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="885" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="884" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="883" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G966">
-    <cfRule type="duplicateValues" dxfId="882" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="881" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="896" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="880" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="879" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="878" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="877" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="876" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="891" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="875" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="874" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="873" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="872" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="871" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="870" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="869" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="868" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="867" priority="1833"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="1833"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="866" priority="1835"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="1835"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="865" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="864" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="863" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="862" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="861" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="860" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="859" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="858" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="857" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="856" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="855" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="854" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="853" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="852" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="851" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="850" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="849" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="848" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="847" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="846" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="845" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="844" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="843" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="842" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="841" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="840" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="839" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="838" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="837" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="836" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="835" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="834" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="833" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="832" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="831" priority="2102"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="2102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="830" priority="2103"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="2103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="829" priority="2104"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="2104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="828" priority="2109"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="2109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="827" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="826" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="825" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="824" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="823" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="822" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="821" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="820" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="819" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="818" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="817" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="816" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="815" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="814" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="831" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="830" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="829" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="813" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="812" priority="2260"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="2260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="811" priority="2262"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="2262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="810" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="809" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="808" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="823" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="807" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="806" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="821" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="805" priority="2398"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="2398"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="804" priority="2399"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="803" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="2399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="818" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="802" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="801" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="800" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="799" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="798" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B1048576">
-    <cfRule type="duplicateValues" dxfId="797" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="796" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A1048576">
-    <cfRule type="duplicateValues" dxfId="795" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B1048576">
+    <cfRule type="duplicateValues" dxfId="812" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="811" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A1048576">
+    <cfRule type="duplicateValues" dxfId="810" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="794" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="793" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="792" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="791" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="790" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="789" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="788" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="787" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B1048576">
-    <cfRule type="duplicateValues" dxfId="786" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B1048576">
+    <cfRule type="duplicateValues" dxfId="801" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="785" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="784" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="783" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="782" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="781" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="780" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="779" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="778" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="777" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="776" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="775" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="774" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="773" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="772" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="771" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="770" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="769" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="768" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="767" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="766" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="765" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="764" priority="2578"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="2578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="763" priority="2602"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="2602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="762" priority="2603"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="2603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:G165">
-    <cfRule type="duplicateValues" dxfId="761" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="760" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="759" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="758" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="757" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="756" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
+    <cfRule type="duplicateValues" dxfId="0" priority="2690"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40466,9 +40645,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42389,9 +42568,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>941</v>
+      </c>
+      <c r="B125" t="s">
+        <v>937</v>
+      </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Promotion_name", getdata("Promotion_name"));</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -47286,355 +47471,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="755" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="754" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="753" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="752" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="751" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="750" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="749" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="748" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="747" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="746" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="745" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="744" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="743" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="742" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="741" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="740" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="739" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="738" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="737" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="736" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="735" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="734" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="733" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="732" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="731" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="730" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="729" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="728" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="727" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="726" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="725" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="724" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="723" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="722" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="721" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="720" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="719" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="718" priority="2017"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="2031"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="717" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="716" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="715" priority="2181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A1:B98">
-    <cfRule type="duplicateValues" dxfId="714" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="2195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B98 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="729" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="713" priority="2186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="712" priority="2189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="711" priority="2193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="710" priority="2196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B40">
-    <cfRule type="duplicateValues" dxfId="709" priority="2199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576">
-    <cfRule type="duplicateValues" dxfId="708" priority="2202"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="2200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="727" priority="2203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B16 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="726" priority="2207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B19 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="725" priority="2210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B40 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="724" priority="2213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="723" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="707" priority="2204"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="2218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="706" priority="2208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B93 B1:B88 B98">
-    <cfRule type="duplicateValues" dxfId="705" priority="2211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B93 B1:B91 B98">
-    <cfRule type="duplicateValues" dxfId="704" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="2222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B88 B98 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="720" priority="2225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B91 B98 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="719" priority="2230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A98">
-    <cfRule type="duplicateValues" dxfId="703" priority="2221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576">
-    <cfRule type="duplicateValues" dxfId="702" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="2235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="717" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="701" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="700" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="699" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A102">
-    <cfRule type="duplicateValues" dxfId="698" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="697" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="696" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="695" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A1048576 A1:A103">
-    <cfRule type="duplicateValues" dxfId="694" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B103">
-    <cfRule type="duplicateValues" dxfId="693" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B1048576 A1:B103">
-    <cfRule type="duplicateValues" dxfId="692" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B103 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="708" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B103 A126:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="707" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="691" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="690" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="689" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="688" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="687" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="686" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B104">
-    <cfRule type="duplicateValues" dxfId="685" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B104 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="700" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="684" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="683" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="682" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="681" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="680" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="679" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="678" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B1048576 B1:B111">
-    <cfRule type="duplicateValues" dxfId="677" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B111 B126:B1048576">
+    <cfRule type="duplicateValues" dxfId="692" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="676" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="675" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="674" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="673" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="672" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="671" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="670" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="669" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="668" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="667" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="666" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="665" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="664" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="663" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="662" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="661" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="660" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="659" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="658" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="657" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="656" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="655" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="654" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="653" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="652" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="651" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="650" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="649" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="648" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="647" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="646" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="645" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A1048576">
-    <cfRule type="duplicateValues" dxfId="644" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="643" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="657" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="duplicateValues" dxfId="656" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="655" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="654" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="653" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="652" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="651" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="650" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="649" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="648" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="647" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="646" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="645" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="644" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="643" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="duplicateValues" dxfId="642" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="641" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="640" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="639" priority="1"/>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="641" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="640" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47700,16 +47927,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="638" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="637" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="636" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="635" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47720,8 +47947,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -53332,60 +53559,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="634" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="633" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="632" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="631" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="630" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="629" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="628" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="627" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="626" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="625" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="624" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="623" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="622" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B19 A24:B1048576">
-    <cfRule type="duplicateValues" dxfId="621" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="620" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="619" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="618" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="617" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="616" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="615" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -54323,489 +54550,489 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="614" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="613" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="611" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="610" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="608" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="607" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="605" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="604" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="602" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="595" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="594" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="593" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="592" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="591" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="590" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="589" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="588" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="587" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="586" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="585" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="584" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B10">
-    <cfRule type="duplicateValues" dxfId="583" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="582" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="581" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="580" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="579" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="577" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="576" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="575" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="574" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="573" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="572" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B15">
-    <cfRule type="duplicateValues" dxfId="571" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="570" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="569" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="568" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="567" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="566" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="565" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="564" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="563" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="560" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="559" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="558" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="557" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="556" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="555" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="554" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="553" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="552" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="551" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="550" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="549" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="548" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="547" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="546" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="545" priority="701"/>
-    <cfRule type="duplicateValues" dxfId="544" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="701"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="543" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="542" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="541" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="540" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="539" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="538" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="536" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="535" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="534" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="533" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="532" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="530" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="529" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="528" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="526" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="525" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="524" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="523" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="522" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="521" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="520" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="519" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="518" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="517" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="516" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="515" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="514" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="513" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="512" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="511" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="509" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="508" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="507" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="506" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="505" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="504" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="503" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="502" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="501" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="500" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="499" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="498" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="497" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="496" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="495" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="494" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="492" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="491" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="490" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="489" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="488" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="487" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="486" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="485" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="484" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="483" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="482" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="481" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="480" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="479" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="478" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="477" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="476" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="475" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="474" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1:B35">
-    <cfRule type="duplicateValues" dxfId="473" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="472" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="471" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="470" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="469" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="468" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="467" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="466" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="465" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="464" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="463" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="462" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="461" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A1048576 A1:A43">
-    <cfRule type="duplicateValues" dxfId="460" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="459" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="458" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="457" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="456" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="455" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="454" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="453" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B47">
-    <cfRule type="duplicateValues" dxfId="452" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="451" priority="2240"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="2240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="450" priority="2243"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="2243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="449" priority="2244"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="448" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576">
-    <cfRule type="duplicateValues" dxfId="447" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B1048576 A1:B49">
-    <cfRule type="duplicateValues" dxfId="446" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="445" priority="2443"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="2443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="444" priority="2449"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="2449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="443" priority="2451"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="2451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="442" priority="2457"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="2457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="440" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="439" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="438" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="437" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="436" priority="2608"/>
-    <cfRule type="duplicateValues" dxfId="435" priority="2609"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="2608"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="2609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="434" priority="2610"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="2610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="433" priority="2611"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="2611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="432" priority="2615"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="2615"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57138,1220 +57365,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -64314,7 +64541,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64402,7 +64629,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wsw\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="RadioButton" sheetId="7" r:id="rId11"/>
     <sheet name="Mobile" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="956">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2273,15 +2273,9 @@
     <t>Node_Service_Acc</t>
   </si>
   <si>
-    <t>//input[@aria-label="Service Account"]//following::span[1]</t>
-  </si>
-  <si>
     <t>Node_From_ADDR</t>
   </si>
   <si>
-    <t>//input[@aria-label="Service Address"]//following::span[1]</t>
-  </si>
-  <si>
     <t>Access_From_Node</t>
   </si>
   <si>
@@ -2856,12 +2850,60 @@
   </si>
   <si>
     <t>//div[@title="Show All Activity"]</t>
+  </si>
+  <si>
+    <t>//button [text()='Add Item']</t>
+  </si>
+  <si>
+    <t>Ecofig_Add</t>
+  </si>
+  <si>
+    <t>//input[@aria-labelledby="ServiceAccount_Label"]//following::span[1]</t>
+  </si>
+  <si>
+    <t>//input[@aria-labelledby="ServiceAddress_Label"]//following::span[1]</t>
+  </si>
+  <si>
+    <t>NBS_ProdAccept</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Next Best Offer:Accept']/Span</t>
+  </si>
+  <si>
+    <t>NBS_Reject</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Next Best Offer:Reject']/Span</t>
+  </si>
+  <si>
+    <t>NBS_Interested</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Next Best Offer:Interested']/Span</t>
+  </si>
+  <si>
+    <t>NBS_Product</t>
+  </si>
+  <si>
+    <t>//div[@class="vfqa-360view-bestoffer-proddesc"]</t>
+  </si>
+  <si>
+    <t>FL_Msg_Text</t>
+  </si>
+  <si>
+    <t>//textarea[@aria-label="Message"]</t>
+  </si>
+  <si>
+    <t>Drop_Order</t>
+  </si>
+  <si>
+    <t>//button[@title='Sales Order:Drop Order']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3023,7 +3065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3068,11 +3110,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1063">
+  <dxfs count="1128">
     <dxf>
       <fill>
         <patternFill>
@@ -9631,6 +9676,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -9778,6 +9833,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -9925,236 +10010,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10242,6 +10097,296 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10376,6 +10521,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10423,96 +10608,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10520,6 +10615,136 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10555,26 +10780,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10622,6 +10827,136 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10649,6 +10984,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10676,86 +11041,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -10803,376 +11088,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11200,26 +11115,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11257,6 +11152,76 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11294,6 +11259,386 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11331,6 +11676,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11368,326 +11723,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11762,16 +11797,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11799,6 +11824,336 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11873,6 +12228,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11900,26 +12265,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -11947,6 +12292,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12038,6 +12393,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12055,6 +12430,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12102,286 +12497,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12396,6 +12511,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12403,6 +12528,326 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12459,46 +12904,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12506,46 +12911,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12553,116 +12918,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12700,6 +12955,276 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -12743,6 +13268,167 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13661,15 +14347,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
@@ -14556,7 +15242,7 @@
         <v>732</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -14604,7 +15290,7 @@
         <v>737</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -14684,7 +15370,7 @@
         <v>746</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>747</v>
+        <v>942</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -14697,10 +15383,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>749</v>
+        <v>943</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -14713,10 +15399,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -14729,10 +15415,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -14745,10 +15431,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -14761,10 +15447,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14777,10 +15463,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14793,10 +15479,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14809,10 +15495,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14828,7 +15514,7 @@
         <v>458</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14841,10 +15527,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14857,10 +15543,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -20135,283 +20821,349 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1062" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1061" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1060" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1059" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1058" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1057" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1056" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1055" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1054" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1053" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1052" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1051" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1050" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1049" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1048" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1047" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1046" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1045" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1044" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1043" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1042" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1041" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1040" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1039" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1038" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1037" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1036" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1035" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1034" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1033" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1032" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1031" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1030" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1029" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1028" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1027" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1026" priority="2094"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="2120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1025" priority="2095"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="2121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1024" priority="2096"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="2122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1023" priority="2098"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="2124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1022" priority="2151"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="2177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1021" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="2178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1020" priority="2153"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="2179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1019" priority="2154"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="2180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1018" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1017" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1016" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1015" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1014" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1013" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1012" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1011" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1010" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1009" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1008" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1007" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="1006" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="1005" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1004" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1003" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1002" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1001" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B69">
-    <cfRule type="duplicateValues" dxfId="1000" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="999" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B69">
-    <cfRule type="duplicateValues" dxfId="998" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A69">
+    <cfRule type="duplicateValues" dxfId="1069" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A69">
+    <cfRule type="duplicateValues" dxfId="1068" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A69">
+    <cfRule type="duplicateValues" dxfId="1067" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="997" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="996" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="995" priority="2418"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="2444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="994" priority="2419"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B71">
-    <cfRule type="duplicateValues" dxfId="993" priority="2420"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B71">
-    <cfRule type="duplicateValues" dxfId="992" priority="2421"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="2445"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B71 A70">
+    <cfRule type="duplicateValues" dxfId="1062" priority="2446"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="1061" priority="2447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="991" priority="2448"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="990" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="989" priority="2462"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="2488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="988" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="987" priority="2471"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="2497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="986" priority="2477"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="2503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="985" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="2507"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="984" priority="2484"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="2510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="983" priority="2487"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="2513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576">
-    <cfRule type="duplicateValues" dxfId="982" priority="2490"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="981" priority="2492"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B57 A75:B1048576 A59:B71 A58">
-    <cfRule type="duplicateValues" dxfId="980" priority="2495"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="2518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B57 A75:B1048576 A59:B62 A58 A71:B71 A63:A70">
+    <cfRule type="duplicateValues" dxfId="1049" priority="2521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="979" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="978" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="977" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="976" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="975" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="974" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="973" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="972" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="971" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="970" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1038" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1037" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1036" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1035" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1034" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1033" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1032" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="1031" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1030" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1029" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1028" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1027" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1026" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1025" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1024" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B68">
+    <cfRule type="duplicateValues" dxfId="1023" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1022" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1021" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1020" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1019" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1018" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1017" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="duplicateValues" dxfId="1016" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="1015" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="1014" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="duplicateValues" dxfId="1013" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -32568,9 +33320,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176:B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33409,10 +34161,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -34627,10 +35379,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -34643,10 +35395,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -34659,10 +35411,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -34675,10 +35427,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -34787,10 +35539,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -34803,10 +35555,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -34822,7 +35574,7 @@
         <v>154</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -34838,7 +35590,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -34851,10 +35603,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -34867,10 +35619,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -34883,10 +35635,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -34899,10 +35651,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -34915,10 +35667,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -34931,10 +35683,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -34947,10 +35699,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -34963,10 +35715,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -34979,10 +35731,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -34995,10 +35747,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -35011,10 +35763,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -35027,10 +35779,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B153" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -35043,10 +35795,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -35059,10 +35811,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -35075,10 +35827,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -35091,10 +35843,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G157" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35103,10 +35855,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B158" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G158" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35115,10 +35867,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G159" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35127,10 +35879,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B160" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G160" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35139,10 +35891,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B161" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G161" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35151,10 +35903,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B162" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G162" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35163,10 +35915,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B163" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G163" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35175,10 +35927,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B164" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G164" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35187,10 +35939,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B165" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G165" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35199,7 +35951,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B166" t="s">
         <v>98</v>
@@ -35211,10 +35963,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B167" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35223,10 +35975,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B168" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G168" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35235,10 +35987,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35247,10 +35999,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B170" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G170" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35259,10 +36011,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B171" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G171" s="4" t="str">
         <f t="shared" si="2"/>
@@ -35270,33 +36022,63 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>940</v>
+      </c>
       <c r="G172" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Ecofig_Add");</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>944</v>
+      </c>
+      <c r="B173" t="s">
+        <v>945</v>
+      </c>
       <c r="G173" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("NBS_ProdAccept");</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>946</v>
+      </c>
+      <c r="B174" t="s">
+        <v>947</v>
+      </c>
       <c r="G174" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("NBS_Reject");</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>948</v>
+      </c>
+      <c r="B175" t="s">
+        <v>949</v>
+      </c>
       <c r="G175" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("NBS_Interested");</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>955</v>
+      </c>
       <c r="G176" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Drop_Order");</v>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.25">
@@ -40034,605 +40816,677 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A1048576">
-    <cfRule type="duplicateValues" dxfId="969" priority="429"/>
+  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A1048576">
+    <cfRule type="duplicateValues" dxfId="1012" priority="453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="968" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="967" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="966" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="965" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="964" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="963" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="962" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="961" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="960" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="436"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="959" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="958" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="957" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="956" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="955" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B1048576">
-    <cfRule type="duplicateValues" dxfId="954" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B1048576">
+    <cfRule type="duplicateValues" dxfId="997" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="953" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="952" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="951" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="950" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="949" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="948" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="947" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="946" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="945" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="944" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="943" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="942" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="941" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="940" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="939" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="938" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="937" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="936" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="346"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="935" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="934" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="933" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="827"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="932" priority="805"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="931" priority="828"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="930" priority="831"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="929" priority="834"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="829"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="974" priority="852"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="973" priority="855"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="972" priority="858"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="928" priority="837"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="927" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="861"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="970" priority="865"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="926" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="925" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="924" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="923" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="922" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="921" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="920" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="919" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="325"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="962" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="918" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="917" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="916" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A1048576">
-    <cfRule type="duplicateValues" dxfId="915" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A1048576">
+    <cfRule type="duplicateValues" dxfId="958" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="914" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="1309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="913" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="1312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="912" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="911" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="910" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="909" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="908" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="907" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="906" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="905" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="904" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="903" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="902" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="901" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="900" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="899" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="898" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="897" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="896" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="939" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="895" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="894" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="893" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="892" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="891" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="934" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="890" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="889" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="888" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="887" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="886" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="885" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="884" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="883" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="882" priority="1833"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="1857"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="881" priority="1835"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="1859"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="880" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="879" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="878" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="877" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="876" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="875" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="874" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="873" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="872" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="871" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="870" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="869" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="868" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="867" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="866" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="865" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="864" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="863" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="862" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="861" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="860" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="859" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="858" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="857" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="856" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="855" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="854" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="853" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="852" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="851" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="850" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="849" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="848" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="847" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="846" priority="2102"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="2126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="845" priority="2103"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="2127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="844" priority="2104"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="2128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="843" priority="2109"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="2133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="842" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="841" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="840" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="839" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="838" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="837" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="836" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="835" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="834" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="833" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="832" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A1048576">
-    <cfRule type="duplicateValues" dxfId="831" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B1048576">
-    <cfRule type="duplicateValues" dxfId="830" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B168 A170:B1048576">
-    <cfRule type="duplicateValues" dxfId="829" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A1048576">
+    <cfRule type="duplicateValues" dxfId="874" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B172 A177:B1048576">
+    <cfRule type="duplicateValues" dxfId="873" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:B168 A170:B172 A177:B1048576">
+    <cfRule type="duplicateValues" dxfId="872" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="828" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="827" priority="2260"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="2284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="826" priority="2262"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="2286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="825" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="824" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A1048576">
-    <cfRule type="duplicateValues" dxfId="823" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A1048576">
+    <cfRule type="duplicateValues" dxfId="866" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="822" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="821" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="864" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="820" priority="2398"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="2422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="819" priority="2399"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A168 A170:A1048576">
-    <cfRule type="duplicateValues" dxfId="818" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="2423"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:A168 A170:A172 A177:A1048576">
+    <cfRule type="duplicateValues" dxfId="861" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="817" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="816" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="815" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="814" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="813" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B1048576">
-    <cfRule type="duplicateValues" dxfId="812" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="811" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A1048576">
-    <cfRule type="duplicateValues" dxfId="810" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B172 A177:B1048576">
+    <cfRule type="duplicateValues" dxfId="855" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="854" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A1048576">
+    <cfRule type="duplicateValues" dxfId="853" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="809" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="808" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="807" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="806" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="805" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="804" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="803" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="802" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B1048576">
-    <cfRule type="duplicateValues" dxfId="801" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B172 B177:B1048576">
+    <cfRule type="duplicateValues" dxfId="844" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="800" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="799" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="798" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="797" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="796" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="795" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="794" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="793" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="792" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="791" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="790" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="789" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="788" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="787" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="786" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="785" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="784" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="783" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="782" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="781" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="780" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="779" priority="2578"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="2602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="778" priority="2602"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="2626"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="777" priority="2603"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="2627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:G165">
-    <cfRule type="duplicateValues" dxfId="776" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="775" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="774" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="773" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="772" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="771" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
-    <cfRule type="duplicateValues" dxfId="770" priority="2690"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="2714"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="812" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:B172">
+    <cfRule type="duplicateValues" dxfId="811" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172">
+    <cfRule type="duplicateValues" dxfId="810" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="809" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="808" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="807" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="806" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="805" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="804" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="803" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="802" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="801" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="800" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="799" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="798" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="797" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="796" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="795" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="794" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="793" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="792" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="791" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="790" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="789" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40647,7 +41501,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40816,7 +41670,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -42237,10 +43091,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -42253,10 +43107,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -42269,10 +43123,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -42285,10 +43139,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -42301,10 +43155,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G103" s="4" t="str">
         <f>IF(A103&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A103&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A103&amp;CHAR(34)&amp;"));","")</f>
@@ -42313,54 +43167,54 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>795</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>798</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" ref="G108:G133" si="2">IF(A108&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;"));","")</f>
@@ -42369,10 +43223,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42381,10 +43235,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42393,10 +43247,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42405,10 +43259,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42417,10 +43271,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42429,10 +43283,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B114" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42441,10 +43295,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -42457,10 +43311,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -42473,10 +43327,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B117" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42485,10 +43339,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B118" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42497,10 +43351,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B119" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42509,10 +43363,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B120" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42521,7 +43375,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B121" t="s">
         <v>658</v>
@@ -42533,10 +43387,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B122" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42545,10 +43399,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B123" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42557,10 +43411,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B124" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42569,10 +43423,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B125" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="2"/>
@@ -42580,15 +43434,27 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>950</v>
+      </c>
+      <c r="B126" t="s">
+        <v>951</v>
+      </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("NBS_Product", getdata("NBS_Product"));</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>953</v>
+      </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("FL_Msg_Text", getdata("FL_Msg_Text"));</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -47471,396 +48337,453 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="769" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="768" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="767" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="766" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="765" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="764" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="763" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="762" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="761" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="760" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="759" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="758" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="757" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="756" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="755" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="754" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="753" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="752" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="751" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="750" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="749" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="748" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="747" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="746" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="745" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="744" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="743" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="742" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="741" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="740" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="739" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="738" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="737" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="736" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="735" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="734" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="733" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="732" priority="2031"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="2050"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="731" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
+    <cfRule type="duplicateValues" dxfId="749" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B66">
+    <cfRule type="duplicateValues" dxfId="748" priority="2214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B98 A128:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="747" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="746" priority="2219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A128:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="745" priority="2222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B16 A128:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="744" priority="2226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B19 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="743" priority="2229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B40 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="742" priority="2232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="741" priority="2235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="740" priority="2237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93 B67:B88 B98">
+    <cfRule type="duplicateValues" dxfId="739" priority="2241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B88 B98 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="738" priority="2244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B91 B98 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="737" priority="2249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A98 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="736" priority="2254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A128:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="735" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:B102">
+    <cfRule type="duplicateValues" dxfId="734" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:B102">
+    <cfRule type="duplicateValues" dxfId="733" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A102">
+    <cfRule type="duplicateValues" dxfId="732" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A102 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="731" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
     <cfRule type="duplicateValues" dxfId="730" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="729" priority="2195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B98 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="728" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="727" priority="2200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="726" priority="2203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B16 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="725" priority="2207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B19 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="724" priority="2210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B40 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="723" priority="2213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="722" priority="2216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="721" priority="2218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="720" priority="2222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B93 B1:B88 B98 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="719" priority="2225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B93 B1:B91 B98 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="718" priority="2230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A1048576 A1:A98">
-    <cfRule type="duplicateValues" dxfId="717" priority="2235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="716" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="715" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="714" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="713" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A1048576 A1:A102">
-    <cfRule type="duplicateValues" dxfId="712" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="A103:B103">
+    <cfRule type="duplicateValues" dxfId="729" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="728" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A103 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="727" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B103 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="726" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B103 A128:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="725" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="724" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:B104">
+    <cfRule type="duplicateValues" dxfId="723" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="duplicateValues" dxfId="722" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="721" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="duplicateValues" dxfId="720" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:B104">
+    <cfRule type="duplicateValues" dxfId="719" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B104 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="718" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A111">
+    <cfRule type="duplicateValues" dxfId="717" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:B111">
+    <cfRule type="duplicateValues" dxfId="716" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B111">
+    <cfRule type="duplicateValues" dxfId="715" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A111">
+    <cfRule type="duplicateValues" dxfId="714" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B111">
+    <cfRule type="duplicateValues" dxfId="713" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:B111">
+    <cfRule type="duplicateValues" dxfId="712" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B111">
     <cfRule type="duplicateValues" dxfId="711" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="710" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="709" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A1048576 A1:A103">
-    <cfRule type="duplicateValues" dxfId="708" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B103 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="707" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B103 A126:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="706" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="705" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="704" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="703" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="702" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="701" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="700" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B104 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="699" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="698" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="697" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B111">
+  <conditionalFormatting sqref="B124 B1:B111 B128:B1048576">
+    <cfRule type="duplicateValues" dxfId="710" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
+    <cfRule type="duplicateValues" dxfId="709" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
+    <cfRule type="duplicateValues" dxfId="708" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:B114">
+    <cfRule type="duplicateValues" dxfId="707" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:B114">
+    <cfRule type="duplicateValues" dxfId="706" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
+    <cfRule type="duplicateValues" dxfId="705" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114">
+    <cfRule type="duplicateValues" dxfId="704" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114">
+    <cfRule type="duplicateValues" dxfId="703" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
+    <cfRule type="duplicateValues" dxfId="702" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114">
+    <cfRule type="duplicateValues" dxfId="701" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114">
+    <cfRule type="duplicateValues" dxfId="700" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118">
+    <cfRule type="duplicateValues" dxfId="699" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:B114">
+    <cfRule type="duplicateValues" dxfId="698" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118">
+    <cfRule type="duplicateValues" dxfId="697" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118">
     <cfRule type="duplicateValues" dxfId="696" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A111">
+  <conditionalFormatting sqref="B112:B114">
     <cfRule type="duplicateValues" dxfId="695" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B111">
+  <conditionalFormatting sqref="A112:B114">
     <cfRule type="duplicateValues" dxfId="694" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="693" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="692" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B111 B126:B1048576">
-    <cfRule type="duplicateValues" dxfId="691" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="690" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="689" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="688" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="687" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="686" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="685" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="684" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="683" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="682" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="681" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="680" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="679" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="678" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="677" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="676" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="675" priority="46"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="674" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="673" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="672" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="671" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="670" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="669" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="668" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="667" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="666" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="665" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="664" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="663" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="662" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="661" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="660" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="659" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A122 A124:A1048576">
+    <cfRule type="duplicateValues" dxfId="678" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A122 A124:A125 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="677" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:B123">
+    <cfRule type="duplicateValues" dxfId="676" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="675" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="duplicateValues" dxfId="674" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="673" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="672" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="671" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="670" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="669" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="668" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="667" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="666" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="665" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="664" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="663" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="662" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="661" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="660" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="659" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="duplicateValues" dxfId="658" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="657" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="656" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="655" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="654" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="653" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="652" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="651" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="650" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="649" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="648" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="647" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="A126:B126">
+    <cfRule type="duplicateValues" dxfId="657" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="656" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:B126">
+    <cfRule type="duplicateValues" dxfId="655" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:B126">
+    <cfRule type="duplicateValues" dxfId="654" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="653" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="652" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="651" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="650" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="649" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="duplicateValues" dxfId="648" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="647" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:B126">
     <cfRule type="duplicateValues" dxfId="646" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="645" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="644" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="643" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="A126:B126">
     <cfRule type="duplicateValues" dxfId="642" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="641" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="640" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="639" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48291,10 +49214,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -48304,10 +49227,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -48317,10 +49240,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -54334,10 +55257,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -54350,10 +55273,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -54366,10 +55289,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -54382,10 +55305,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -54398,32 +55321,32 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -54431,33 +55354,33 @@
         <v>740</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" ref="G52:G58" si="1">IF(A52&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A52&amp;CHAR(34)&amp;");","")</f>
@@ -54466,10 +55389,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54478,10 +55401,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54490,10 +55413,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54502,10 +55425,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54514,10 +55437,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B57" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -54526,10 +55449,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G58" s="23" t="str">
         <f t="shared" si="1"/>
@@ -54538,10 +55461,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G59" s="4" t="str">
         <f>IF(A59&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A59&amp;CHAR(34)&amp;");","")</f>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="986">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2898,6 +2898,96 @@
   </si>
   <si>
     <t>//button[@title='Sales Order:Drop Order']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Adjustments:')]</t>
+  </si>
+  <si>
+    <t>Adjustment_link</t>
+  </si>
+  <si>
+    <t>Adjustment_Type</t>
+  </si>
+  <si>
+    <t>Adjustment_Reason</t>
+  </si>
+  <si>
+    <t>Adjustment_Amount</t>
+  </si>
+  <si>
+    <t>Adjustment_Status</t>
+  </si>
+  <si>
+    <t>Total_Due</t>
+  </si>
+  <si>
+    <t>Customer_Decision</t>
+  </si>
+  <si>
+    <t>//*[@aria-label='Adjustment Type']</t>
+  </si>
+  <si>
+    <t>//*[@aria-label='Reason For Request']</t>
+  </si>
+  <si>
+    <t>//*[@aria-label='Request Amount']</t>
+  </si>
+  <si>
+    <t>//*[@aria-label='Status']</t>
+  </si>
+  <si>
+    <t>//*[@aria-label='Total']</t>
+  </si>
+  <si>
+    <t>//*[@aria-label='Customer Decision']</t>
+  </si>
+  <si>
+    <t>Adjustments_table</t>
+  </si>
+  <si>
+    <t>Adjustments_table_header</t>
+  </si>
+  <si>
+    <t>Bills_header</t>
+  </si>
+  <si>
+    <t>//table[@summary='Adjustment Requests']</t>
+  </si>
+  <si>
+    <t>//table[@summary="Adjustment Requests"]/../../..//table[@role='presentation']</t>
+  </si>
+  <si>
+    <t>//table[@summary="Bills"]/../../..//table[@role='presentation']</t>
+  </si>
+  <si>
+    <t>Account_Org_Go</t>
+  </si>
+  <si>
+    <t>//button[@title='Account Org Hierarchy:Go'][1]</t>
+  </si>
+  <si>
+    <t>Account_Org_Search</t>
+  </si>
+  <si>
+    <t>//button[@title='Account Org Hierarchy:Query']</t>
+  </si>
+  <si>
+    <t>Home_Button</t>
+  </si>
+  <si>
+    <t>//button[.='Home Move']</t>
+  </si>
+  <si>
+    <t>Order_DueDate</t>
+  </si>
+  <si>
+    <t>//span[text()='Due']/../../following-sibling::td[1]//span</t>
+  </si>
+  <si>
+    <t>UBD</t>
+  </si>
+  <si>
+    <t>//table[@summary='Usage Based Discounts']</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3207,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1128">
+  <dxfs count="1156">
     <dxf>
       <fill>
         <patternFill>
@@ -10776,6 +10866,283 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14349,7 +14716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69:B70"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15558,9 +15925,15 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>957</v>
+      </c>
+      <c r="B75" t="s">
+        <v>956</v>
+      </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebLink.click("Adjustment_link");</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -20821,349 +21194,349 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1127" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1126" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1125" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="1153" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1124" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1123" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1122" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1121" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1120" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1148" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1119" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1118" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1117" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1116" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1115" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1114" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1113" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1112" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1111" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1110" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1109" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1108" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1107" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1106" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1105" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1104" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1103" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1102" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1101" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1100" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1099" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1098" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1097" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1096" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1095" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1094" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1093" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1092" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1091" priority="2120"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="2120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1090" priority="2121"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="2121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1089" priority="2122"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="2122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1088" priority="2124"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="2124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1087" priority="2177"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="2177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1086" priority="2178"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="2178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1085" priority="2179"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="2179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1084" priority="2180"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="2180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1083" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1082" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1081" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1080" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1079" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1078" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1077" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1076" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1075" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1074" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1073" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1072" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1071" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1070" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1069" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1068" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1067" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1066" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1065" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1064" priority="2444"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="2444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1063" priority="2445"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="2445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 A70">
-    <cfRule type="duplicateValues" dxfId="1062" priority="2446"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="2446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1061" priority="2447"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="2447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="1060" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="1059" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="1058" priority="2488"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="2488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="1057" priority="2495"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="1056" priority="2497"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="2497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="1055" priority="2503"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="2503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="1054" priority="2507"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="2507"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="1053" priority="2510"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="2510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="1052" priority="2513"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="2513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576">
-    <cfRule type="duplicateValues" dxfId="1051" priority="2516"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1050" priority="2518"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="2518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B57 A75:B1048576 A59:B62 A58 A71:B71 A63:A70">
-    <cfRule type="duplicateValues" dxfId="1049" priority="2521"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="2521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1048" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1047" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1046" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1045" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1044" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1043" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1042" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1041" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="1040" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1039" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1067" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1038" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1037" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1036" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1035" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1034" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1033" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1032" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1031" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1030" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1029" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1028" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1027" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1026" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1025" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1024" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1023" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1022" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1021" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1020" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1019" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1018" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1017" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1016" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1015" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1014" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="1013" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -33320,9 +33693,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176:B176"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36081,97 +36454,163 @@
         <v>Browser.WebButton.click("Drop_Order");</v>
       </c>
     </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>952</v>
+      </c>
+      <c r="B177" t="s">
+        <v>953</v>
+      </c>
       <c r="G177" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("FL_Msg_Text");</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>958</v>
+      </c>
+      <c r="B178" t="s">
+        <v>964</v>
+      </c>
       <c r="G178" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Adjustment_Type");</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>959</v>
+      </c>
+      <c r="B179" t="s">
+        <v>965</v>
+      </c>
       <c r="G179" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Adjustment_Reason");</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>960</v>
+      </c>
+      <c r="B180" t="s">
+        <v>966</v>
+      </c>
       <c r="G180" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Adjustment_Amount");</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>961</v>
+      </c>
+      <c r="B181" t="s">
+        <v>967</v>
+      </c>
       <c r="G181" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Adjustment_Status");</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>962</v>
+      </c>
+      <c r="B182" t="s">
+        <v>968</v>
+      </c>
       <c r="G182" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Total_Due");</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>963</v>
+      </c>
+      <c r="B183" t="s">
+        <v>969</v>
+      </c>
       <c r="G183" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Customer_Decision");</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="B184" t="s">
+        <v>977</v>
+      </c>
       <c r="G184" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Account_Org_Go");</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="B185" t="s">
+        <v>979</v>
+      </c>
       <c r="G185" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Account_Org_Search");</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>980</v>
+      </c>
+      <c r="B186" t="s">
+        <v>981</v>
+      </c>
       <c r="G186" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Home_Button");</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>982</v>
+      </c>
+      <c r="B187" t="s">
+        <v>983</v>
+      </c>
       <c r="G187" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebButton.click("Order_DueDate");</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G188" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G189" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G190" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G191" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G192" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40816,676 +41255,758 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A1048576">
-    <cfRule type="duplicateValues" dxfId="1012" priority="453"/>
+  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A1048576">
+    <cfRule type="duplicateValues" dxfId="1040" priority="481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1011" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1010" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1009" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1008" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1007" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1006" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1005" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1004" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1003" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1002" priority="434"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1001" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="1000" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="999" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="998" priority="410"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B1048576">
-    <cfRule type="duplicateValues" dxfId="997" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="438"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B1048576">
+    <cfRule type="duplicateValues" dxfId="1025" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="996" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="995" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="994" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="993" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="992" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="991" priority="384"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="990" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="406"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="989" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="988" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="987" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="986" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="985" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="984" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="983" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="982" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="981" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="980" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="979" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="978" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="977" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="976" priority="827"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="855"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="975" priority="829"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="974" priority="852"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="973" priority="855"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="972" priority="858"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="857"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="1002" priority="880"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="1001" priority="883"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="1000" priority="886"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="971" priority="861"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="970" priority="865"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="889"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="998" priority="893"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="969" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="968" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="967" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="966" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="965" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="964" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="963" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="962" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="990" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="961" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="960" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="959" priority="304"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A1048576">
-    <cfRule type="duplicateValues" dxfId="958" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A1048576">
+    <cfRule type="duplicateValues" dxfId="986" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="957" priority="1309"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="1337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="956" priority="1312"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="1340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="955" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="954" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="953" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="952" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="951" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="950" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="949" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="948" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="947" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="946" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="945" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="944" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="943" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="942" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="941" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="940" priority="273"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="939" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="967" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="938" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="937" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="936" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="935" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="934" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="962" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="933" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="932" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="931" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="930" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="929" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="928" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="927" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="926" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="925" priority="1857"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="1885"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="924" priority="1859"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="1887"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="923" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="922" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="921" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="920" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="919" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="918" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="917" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="916" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="915" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="914" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="913" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="912" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="911" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="910" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="909" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="908" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="907" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="906" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="905" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="904" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="903" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="902" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="901" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="900" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="899" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="898" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="897" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="896" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="895" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="894" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="893" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="892" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="891" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="890" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="889" priority="2126"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="2154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="888" priority="2127"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="2155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="887" priority="2128"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="2156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="886" priority="2133"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="2161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="885" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="884" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="883" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="882" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="881" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="880" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="879" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="878" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="877" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="876" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="875" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A1048576">
-    <cfRule type="duplicateValues" dxfId="874" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B172 A177:B1048576">
-    <cfRule type="duplicateValues" dxfId="873" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B168 A170:B172 A177:B1048576">
-    <cfRule type="duplicateValues" dxfId="872" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A1048576">
+    <cfRule type="duplicateValues" dxfId="902" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B172 A177:B183 A188:B1048576">
+    <cfRule type="duplicateValues" dxfId="901" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B1048576">
+    <cfRule type="duplicateValues" dxfId="900" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="871" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="870" priority="2284"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="2312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="869" priority="2286"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="2314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="868" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="867" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A1048576">
-    <cfRule type="duplicateValues" dxfId="866" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A1048576">
+    <cfRule type="duplicateValues" dxfId="894" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="865" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="864" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="892" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="863" priority="2422"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="2450"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="862" priority="2423"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A168 A170:A172 A177:A1048576">
-    <cfRule type="duplicateValues" dxfId="861" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="2451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A1048576">
+    <cfRule type="duplicateValues" dxfId="889" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="860" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="859" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="858" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="857" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="856" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B172 A177:B1048576">
-    <cfRule type="duplicateValues" dxfId="855" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="854" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A1048576">
-    <cfRule type="duplicateValues" dxfId="853" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B172 A177:B183 A188:B1048576">
+    <cfRule type="duplicateValues" dxfId="883" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="882" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A1048576">
+    <cfRule type="duplicateValues" dxfId="881" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="852" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="851" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="850" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="849" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="848" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="847" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="846" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="845" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B172 B177:B1048576">
-    <cfRule type="duplicateValues" dxfId="844" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B172 B177:B183 B188:B1048576">
+    <cfRule type="duplicateValues" dxfId="872" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="843" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="842" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="841" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="840" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="839" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="838" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="837" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="836" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="835" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="834" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="833" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="832" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="831" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="830" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="829" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="828" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="827" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="826" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="825" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="824" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="823" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="822" priority="2602"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="2630"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="821" priority="2626"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="2654"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="820" priority="2627"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="2655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:G165">
-    <cfRule type="duplicateValues" dxfId="819" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="818" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="817" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="816" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="815" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="814" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
-    <cfRule type="duplicateValues" dxfId="813" priority="2714"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="2742"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="812" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:B172">
-    <cfRule type="duplicateValues" dxfId="811" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="duplicateValues" dxfId="810" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="837" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="836" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="835" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="834" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="833" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="832" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="831" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="830" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="829" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="828" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="827" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="826" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="825" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="824" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="823" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="822" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="821" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:B175">
+    <cfRule type="duplicateValues" dxfId="820" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="819" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:B175">
+    <cfRule type="duplicateValues" dxfId="818" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="duplicateValues" dxfId="817" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:A187">
+    <cfRule type="duplicateValues" dxfId="816" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:B187 B184:B185">
+    <cfRule type="duplicateValues" dxfId="815" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="814" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="813" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="812" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="811" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="810" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:A187">
     <cfRule type="duplicateValues" dxfId="809" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A172">
+  <conditionalFormatting sqref="B184:B187">
     <cfRule type="duplicateValues" dxfId="808" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="807" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="806" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="805" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="804" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="803" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="807" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:A187">
+    <cfRule type="duplicateValues" dxfId="806" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:B187 B184:B185">
+    <cfRule type="duplicateValues" dxfId="805" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:B187 B184:B185">
+    <cfRule type="duplicateValues" dxfId="804" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:A187">
+    <cfRule type="duplicateValues" dxfId="803" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
     <cfRule type="duplicateValues" dxfId="802" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="801" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="800" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="799" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="798" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="797" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="796" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="795" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
+  <conditionalFormatting sqref="A186:A187">
+    <cfRule type="duplicateValues" dxfId="801" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:B187 B184:B185">
+    <cfRule type="duplicateValues" dxfId="800" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="799" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:A187">
+    <cfRule type="duplicateValues" dxfId="798" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B187">
+    <cfRule type="duplicateValues" dxfId="797" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:A185">
+    <cfRule type="duplicateValues" dxfId="796" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:A185">
     <cfRule type="duplicateValues" dxfId="794" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
+  <conditionalFormatting sqref="A184:A185">
     <cfRule type="duplicateValues" dxfId="793" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173:B175">
+  <conditionalFormatting sqref="A184:A185">
     <cfRule type="duplicateValues" dxfId="792" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
+  <conditionalFormatting sqref="A184:A185">
     <cfRule type="duplicateValues" dxfId="791" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:B175">
+  <conditionalFormatting sqref="A184:A185">
     <cfRule type="duplicateValues" dxfId="790" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
+  <conditionalFormatting sqref="A184:A185">
     <cfRule type="duplicateValues" dxfId="789" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48871,7 +49392,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -54545,16 +55066,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49:G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
@@ -55471,15 +55992,63 @@
         <v>Browser.WebTable.getRowCount("Contact_table");</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>970</v>
+      </c>
+      <c r="B60" t="s">
+        <v>973</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" ref="G60:G63" si="2">IF(A60&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A60&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebTable.getRowCount("Adjustments_table");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>971</v>
+      </c>
+      <c r="B61" t="s">
+        <v>974</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebTable.getRowCount("Adjustments_table_header");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>972</v>
+      </c>
+      <c r="B62" t="s">
+        <v>975</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebTable.getRowCount("Bills_header");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>984</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebTable.getRowCount("UBD");</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="614" priority="298"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A1048576 A1">
+  <conditionalFormatting sqref="A60:A62 A1 A64:A1048576">
     <cfRule type="duplicateValues" dxfId="613" priority="296"/>
     <cfRule type="duplicateValues" dxfId="612" priority="297"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B1048576 B1">
+  <conditionalFormatting sqref="B60:B62 B1 B64:B1048576">
     <cfRule type="duplicateValues" dxfId="611" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
@@ -55545,7 +56114,7 @@
   <conditionalFormatting sqref="B10">
     <cfRule type="duplicateValues" dxfId="584" priority="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B1048576 A1:B10">
+  <conditionalFormatting sqref="A60:B62 A1:B10 A64:B1048576">
     <cfRule type="duplicateValues" dxfId="583" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
@@ -55575,7 +56144,7 @@
   <conditionalFormatting sqref="B14:B15">
     <cfRule type="duplicateValues" dxfId="572" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B1048576 B1:B15">
+  <conditionalFormatting sqref="B60:B62 B1:B15 B64:B1048576">
     <cfRule type="duplicateValues" dxfId="571" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
@@ -55677,7 +56246,7 @@
   <conditionalFormatting sqref="A26:F26">
     <cfRule type="duplicateValues" dxfId="532" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B1048576 B1:B26">
+  <conditionalFormatting sqref="B60:B62 B1:B26 B64:B1048576">
     <cfRule type="duplicateValues" dxfId="531" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
@@ -55833,7 +56402,7 @@
   <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="474" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B1048576 B1:B35">
+  <conditionalFormatting sqref="B60:B62 B1:B35 B64:B1048576">
     <cfRule type="duplicateValues" dxfId="473" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
@@ -55872,7 +56441,7 @@
   <conditionalFormatting sqref="B37:B42">
     <cfRule type="duplicateValues" dxfId="461" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A1048576 A1:A43">
+  <conditionalFormatting sqref="A60:A62 A1:A43 A64:A1048576">
     <cfRule type="duplicateValues" dxfId="460" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
@@ -55896,7 +56465,7 @@
   <conditionalFormatting sqref="A44:A47">
     <cfRule type="duplicateValues" dxfId="453" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B1048576 A1:B47">
+  <conditionalFormatting sqref="A60:B62 A1:B47 A64:B1048576">
     <cfRule type="duplicateValues" dxfId="452" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
@@ -55908,13 +56477,13 @@
   <conditionalFormatting sqref="A43">
     <cfRule type="duplicateValues" dxfId="449" priority="2244"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B1048576">
+  <conditionalFormatting sqref="A60:B62 A64:B1048576">
     <cfRule type="duplicateValues" dxfId="448" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B1048576">
+  <conditionalFormatting sqref="A60:B62 A64:B1048576">
     <cfRule type="duplicateValues" dxfId="447" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B1048576 A1:B49">
+  <conditionalFormatting sqref="A60:B62 A1:B49 A64:B1048576">
     <cfRule type="duplicateValues" dxfId="446" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
@@ -65476,7 +66045,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="990">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2988,6 +2988,18 @@
   </si>
   <si>
     <t>//table[@summary='Usage Based Discounts']</t>
+  </si>
+  <si>
+    <t>Account_Org_Hierarchy</t>
+  </si>
+  <si>
+    <t>//table[@class='ui-jqgrid-htable']</t>
+  </si>
+  <si>
+    <t>//span[.='GetPINPUK']</t>
+  </si>
+  <si>
+    <t>Get_PUK</t>
   </si>
 </sst>
 </file>
@@ -3207,7 +3219,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1156">
+  <dxfs count="1168">
     <dxf>
       <fill>
         <patternFill>
@@ -6299,6 +6311,126 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -21194,349 +21326,349 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1155" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1167" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1154" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1166" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1153" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="1165" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1152" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="1164" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1151" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="1163" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1150" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1162" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1149" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1161" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1148" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1160" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1147" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="1159" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1146" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1158" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1145" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="1157" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1144" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1156" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1143" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1142" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1141" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="1153" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1140" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1139" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1138" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1137" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1136" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1148" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1135" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1134" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1133" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1132" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1131" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1130" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1129" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1128" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1127" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1126" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1125" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1124" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1123" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1122" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1121" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1120" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1119" priority="2120"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="2120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1118" priority="2121"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="2121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1117" priority="2122"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="2122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1116" priority="2124"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="2124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1115" priority="2177"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="2177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1114" priority="2178"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="2178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1113" priority="2179"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="2179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1112" priority="2180"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="2180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1111" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1110" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1109" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1108" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1107" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1106" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1105" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1104" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1103" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1102" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1101" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1100" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1099" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1098" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1097" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1096" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1095" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1094" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1093" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1092" priority="2444"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="2444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1091" priority="2445"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="2445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 A70">
-    <cfRule type="duplicateValues" dxfId="1090" priority="2446"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="2446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1089" priority="2447"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="2447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="1088" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="1087" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="1086" priority="2488"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="2488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576">
-    <cfRule type="duplicateValues" dxfId="1085" priority="2495"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="1084" priority="2497"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="2497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="1083" priority="2503"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="2503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="1082" priority="2507"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="2507"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="1081" priority="2510"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="2510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="1080" priority="2513"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="2513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A1048576">
-    <cfRule type="duplicateValues" dxfId="1079" priority="2516"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B1048576 A1:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1078" priority="2518"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="2518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B57 A75:B1048576 A59:B62 A58 A71:B71 A63:A70">
-    <cfRule type="duplicateValues" dxfId="1077" priority="2521"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="2521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1076" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1075" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1074" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1073" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1072" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1071" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1070" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1069" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="1068" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1067" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1066" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1065" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1064" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1063" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1062" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1061" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1060" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1059" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1058" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1057" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1056" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1055" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1067" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1054" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1053" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1052" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1051" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1050" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1049" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1048" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1047" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1046" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1045" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1044" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1043" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1042" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="1041" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -33693,9 +33825,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36587,9 +36719,15 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>989</v>
+      </c>
+      <c r="B188" t="s">
+        <v>988</v>
+      </c>
       <c r="G188" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebButton.click("Get_PUK");</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -41256,758 +41394,758 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A1048576">
-    <cfRule type="duplicateValues" dxfId="1040" priority="481"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1039" priority="474"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1038" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1037" priority="472"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1036" priority="471"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1035" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1034" priority="469"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1033" priority="466"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1032" priority="465"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1031" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1030" priority="462"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1029" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="1028" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1027" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1026" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B1048576">
-    <cfRule type="duplicateValues" dxfId="1025" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="1024" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1023" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="1022" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1021" priority="416"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="1020" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="1019" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="1018" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="406"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="1017" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="1016" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1015" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1014" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1013" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1012" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="1011" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1010" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1009" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1008" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1007" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1006" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="1005" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="1004" priority="855"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="855"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="1003" priority="857"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="857"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="1002" priority="880"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="880"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="1001" priority="883"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="883"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="1000" priority="886"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="886"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="999" priority="889"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="889"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="998" priority="893"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="893"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="997" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="996" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="995" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="994" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="993" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="992" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="991" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="990" priority="352"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="989" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="988" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="987" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A1048576">
-    <cfRule type="duplicateValues" dxfId="986" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="985" priority="1337"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="1337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="984" priority="1340"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="1340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="983" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="982" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="981" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="980" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="979" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="978" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="977" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="976" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="975" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="974" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="973" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="972" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="971" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="970" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="969" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="968" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="967" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="966" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="965" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="964" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="963" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="962" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="961" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="960" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="959" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="958" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="957" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="956" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="955" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="954" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="953" priority="1885"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="1885"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="952" priority="1887"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="1887"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="951" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="950" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="949" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="948" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="947" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="946" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="945" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="944" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="943" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="942" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="941" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="940" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="939" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="938" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="937" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="936" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="935" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="934" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="933" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="932" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="931" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="930" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="929" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="928" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="927" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="926" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="925" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="924" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="923" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="922" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="921" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="920" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="919" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="918" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="917" priority="2154"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="2154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="916" priority="2155"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="2155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="915" priority="2156"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="2156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="914" priority="2161"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="2161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="913" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="912" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="911" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="910" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="909" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="908" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="907" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="906" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="905" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="904" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="903" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A1048576">
-    <cfRule type="duplicateValues" dxfId="902" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B126 A166:B168 A170:B172 A177:B183 A188:B1048576">
-    <cfRule type="duplicateValues" dxfId="901" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B1048576">
-    <cfRule type="duplicateValues" dxfId="900" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="899" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="898" priority="2312"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="2312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="897" priority="2314"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="2314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="896" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="895" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A1048576">
-    <cfRule type="duplicateValues" dxfId="894" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="893" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B130 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="892" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="891" priority="2450"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="2450"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="890" priority="2451"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="2451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A1048576">
-    <cfRule type="duplicateValues" dxfId="889" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="888" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="887" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="886" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="885" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="884" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B136 A166:B168 A170:B172 A177:B183 A188:B1048576">
-    <cfRule type="duplicateValues" dxfId="883" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B136 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="882" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A1048576">
-    <cfRule type="duplicateValues" dxfId="881" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="880" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="879" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="878" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="877" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="876" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="875" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="874" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="873" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B145 B166:B168 B170:B172 B177:B183 B188:B1048576">
-    <cfRule type="duplicateValues" dxfId="872" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="871" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="870" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="869" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="868" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="867" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="866" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="865" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="864" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="863" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="862" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="861" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="860" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="859" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="858" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="857" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="856" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="855" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="854" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="853" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="852" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="851" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="850" priority="2630"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="2630"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="849" priority="2654"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="2654"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="848" priority="2655"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="2655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:G165">
-    <cfRule type="duplicateValues" dxfId="847" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="846" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="845" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="844" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="843" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="842" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G162 G166:G965">
-    <cfRule type="duplicateValues" dxfId="841" priority="2742"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="2742"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="840" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:B172">
-    <cfRule type="duplicateValues" dxfId="839" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="duplicateValues" dxfId="838" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="837" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="836" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="835" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="834" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="833" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="832" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="831" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="830" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="829" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="828" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="827" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="826" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="825" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="824" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="823" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="822" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="821" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="820" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="819" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="818" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="817" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="816" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="815" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="814" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="813" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="812" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="811" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="810" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="809" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="808" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="807" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="806" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="805" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="804" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="803" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="802" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="801" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="800" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="799" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="798" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="797" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="796" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="795" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="794" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="793" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="792" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="791" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="790" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="789" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48858,454 +48996,454 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="788" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="787" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="786" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="785" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="784" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="783" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="782" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="781" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="780" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="779" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="778" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="777" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="776" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="775" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="774" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="773" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="772" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="771" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="770" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="769" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="768" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="767" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="766" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="765" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="764" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="763" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="762" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="761" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="760" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="759" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="758" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="757" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="756" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="755" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="754" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="753" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="752" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="751" priority="2050"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="2050"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="750" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="749" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="748" priority="2214"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="2214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B98 A128:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="747" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="746" priority="2219"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="2219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A128:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="745" priority="2222"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="2222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B16 A128:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="744" priority="2226"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="2226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B19 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="743" priority="2229"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="2229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B40 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="742" priority="2232"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="2232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="741" priority="2235"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="2235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="740" priority="2237"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="2237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="739" priority="2241"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="2241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B88 B98 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="738" priority="2244"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B91 B98 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="737" priority="2249"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="2249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A98 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="736" priority="2254"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="2254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A128:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="735" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="734" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="733" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="732" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A102 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="731" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="730" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="729" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="728" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A103 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="727" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B103 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="726" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B103 A128:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="725" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="724" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="723" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="722" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="721" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="720" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="719" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B104 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="718" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="717" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="716" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="715" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="714" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="713" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="712" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="711" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B111 B128:B1048576">
-    <cfRule type="duplicateValues" dxfId="710" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="709" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="708" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="707" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="706" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="705" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="704" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="703" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="702" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="701" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="700" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="699" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="698" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="697" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="696" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="695" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="694" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="693" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="692" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="691" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="690" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="689" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="688" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="687" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="686" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="685" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="684" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="683" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="682" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="681" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="680" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="679" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="678" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A125 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="677" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="676" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="675" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="674" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="673" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="672" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="671" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="670" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="669" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="668" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="667" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="666" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="665" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="664" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="663" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="662" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="661" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="660" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="659" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="658" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="657" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="656" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="655" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="654" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="653" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="652" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="651" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="650" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="649" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="648" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="647" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="646" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="645" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="644" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="643" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="642" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="641" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="640" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="639" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49371,16 +49509,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="638" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="637" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="636" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="635" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55003,60 +55141,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="634" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="633" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="632" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="631" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="630" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="629" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="628" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="627" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="626" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="625" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="624" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="623" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="622" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B19 A24:B1048576">
-    <cfRule type="duplicateValues" dxfId="621" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="620" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="619" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="618" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="617" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="616" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="615" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -55066,11 +55204,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62:G63"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56040,491 +56178,537 @@
         <v>Browser.WebTable.getRowCount("UBD");</v>
       </c>
     </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="B64" t="s">
+        <v>987</v>
+      </c>
+      <c r="G64" s="23" t="str">
+        <f>IF(A64&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A64&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebTable.getRowCount("Account_Org_Hierarchy");</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="614" priority="298"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A62 A1 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="613" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="297"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1 B64:B1048576">
-    <cfRule type="duplicateValues" dxfId="611" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62 A1 A65:A1048576">
+    <cfRule type="duplicateValues" dxfId="625" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="309"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1 B65:B1048576">
+    <cfRule type="duplicateValues" dxfId="623" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="610" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="608" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="607" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="605" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="604" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="602" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="613" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="611" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="610" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="608" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="607" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="605" priority="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="604" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="276"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="602" priority="274"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="601" priority="272"/>
     <cfRule type="duplicateValues" dxfId="600" priority="273"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B9">
     <cfRule type="duplicateValues" dxfId="599" priority="271"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="598" priority="269"/>
     <cfRule type="duplicateValues" dxfId="597" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B10">
     <cfRule type="duplicateValues" dxfId="596" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="595" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="594" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="593" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="592" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="591" priority="264"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="590" priority="262"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="589" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="588" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="587" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="586" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="585" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="584" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A1:B10 A64:B1048576">
-    <cfRule type="duplicateValues" dxfId="583" priority="255"/>
+  <conditionalFormatting sqref="A60:B62 A1:B10 A65:B1048576">
+    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="582" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="581" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="580" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="579" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="577" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="576" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="575" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="574" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="573" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="572" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1:B15 B64:B1048576">
-    <cfRule type="duplicateValues" dxfId="571" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1:B15 B65:B1048576">
+    <cfRule type="duplicateValues" dxfId="583" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="570" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="569" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="568" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="567" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="566" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="565" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="564" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="563" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="574" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="573" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="572" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="571" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="570" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="duplicateValues" dxfId="567" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B18">
+    <cfRule type="duplicateValues" dxfId="565" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="563" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
     <cfRule type="duplicateValues" dxfId="562" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B17:B18">
     <cfRule type="duplicateValues" dxfId="561" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="560" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="559" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="558" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="557" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="556" priority="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="555" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="554" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="553" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="552" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="551" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="550" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="549" priority="192"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="548" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="547" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="546" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="545" priority="701"/>
-    <cfRule type="duplicateValues" dxfId="544" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="543" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="542" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="541" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="540" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="539" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="729"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="538" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="536" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="535" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="534" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="533" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="532" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1:B26 B64:B1048576">
+    <cfRule type="duplicateValues" dxfId="544" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1:B26 B65:B1048576">
+    <cfRule type="duplicateValues" dxfId="543" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="542" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="duplicateValues" dxfId="540" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="539" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:F27">
+    <cfRule type="duplicateValues" dxfId="538" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:F27">
+    <cfRule type="duplicateValues" dxfId="536" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="535" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="duplicateValues" dxfId="534" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B29">
+    <cfRule type="duplicateValues" dxfId="532" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
     <cfRule type="duplicateValues" dxfId="531" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="530" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="529" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="528" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="A28:F29">
+    <cfRule type="duplicateValues" dxfId="530" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:F29">
+    <cfRule type="duplicateValues" dxfId="528" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
     <cfRule type="duplicateValues" dxfId="527" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="526" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="525" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="524" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="523" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="522" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="521" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="520" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="519" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="518" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="517" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="516" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="515" priority="114"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="514" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="513" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="512" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="511" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="509" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="508" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="507" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="506" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="505" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="504" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="503" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="502" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="501" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="500" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="499" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="498" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="497" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="496" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="495" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="494" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="505" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="503" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="502" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:B33">
+    <cfRule type="duplicateValues" dxfId="500" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="499" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:F33">
+    <cfRule type="duplicateValues" dxfId="498" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:F33">
+    <cfRule type="duplicateValues" dxfId="496" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="duplicateValues" dxfId="495" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="duplicateValues" dxfId="494" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
     <cfRule type="duplicateValues" dxfId="493" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="492" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="491" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="490" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="489" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="488" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="487" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="486" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="485" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="484" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="483" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="482" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="481" priority="80"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="480" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="479" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="478" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="477" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="476" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="475" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="474" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1:B35 B64:B1048576">
-    <cfRule type="duplicateValues" dxfId="473" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1:B35 B65:B1048576">
+    <cfRule type="duplicateValues" dxfId="485" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="472" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="471" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="470" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="469" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="468" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="467" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="466" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="465" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="464" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="463" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="462" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="461" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A62 A1:A43 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="460" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62 A1:A43 A65:A1048576">
+    <cfRule type="duplicateValues" dxfId="472" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="459" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="458" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="457" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="456" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="455" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="454" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="453" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A1:B47 A64:B1048576">
-    <cfRule type="duplicateValues" dxfId="452" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A1:B47 A65:B1048576">
+    <cfRule type="duplicateValues" dxfId="464" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="451" priority="2240"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="2252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="450" priority="2243"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="2255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="449" priority="2244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A64:B1048576">
-    <cfRule type="duplicateValues" dxfId="448" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A64:B1048576">
-    <cfRule type="duplicateValues" dxfId="447" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A1:B49 A64:B1048576">
-    <cfRule type="duplicateValues" dxfId="446" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="2256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A65:B1048576">
+    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A65:B1048576">
+    <cfRule type="duplicateValues" dxfId="459" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A1:B49 A65:B1048576">
+    <cfRule type="duplicateValues" dxfId="458" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="445" priority="2443"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="444" priority="2449"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="2461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="443" priority="2451"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="2463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="442" priority="2457"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="2469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="440" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="439" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="438" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="437" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="436" priority="2608"/>
-    <cfRule type="duplicateValues" dxfId="435" priority="2609"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="2620"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="2621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="434" priority="2610"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="2622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="433" priority="2611"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="2623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="432" priority="2615"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="2627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="443" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="441" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="duplicateValues" dxfId="440" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="439" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="438" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="437" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="436" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="duplicateValues" dxfId="435" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="duplicateValues" dxfId="434" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -33826,8 +33826,8 @@
   <dimension ref="A1:G965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel_Git\olympus_dev\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -2339,9 +2339,6 @@
     <t>Enterprise_credit_limit</t>
   </si>
   <si>
-    <t>//input[@aria-label="Enterprise/VIP credit limit"]</t>
-  </si>
-  <si>
     <t>CPE_Item</t>
   </si>
   <si>
@@ -2516,9 +2513,6 @@
     <t>Ent_Notif</t>
   </si>
   <si>
-    <t>//span[text()='Notification Contact']/../../following-sibling::td[1]//input</t>
-  </si>
-  <si>
     <t>RTB_Table</t>
   </si>
   <si>
@@ -3027,6 +3021,12 @@
   </si>
   <si>
     <t>//button[@aria-label='Activities:Menu']</t>
+  </si>
+  <si>
+    <t>//input[contains(@aria-label,'Language')]</t>
+  </si>
+  <si>
+    <t>//input[@aria-labelledby='VFQA_Notification_Contact_Last_Name_Label']</t>
   </si>
 </sst>
 </file>
@@ -3237,7 +3237,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1258">
+  <dxfs count="1261">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15749,8 +15779,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -16644,7 +16674,7 @@
         <v>732</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -16692,7 +16722,7 @@
         <v>737</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -16772,7 +16802,7 @@
         <v>746</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -16788,7 +16818,7 @@
         <v>747</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -16897,10 +16927,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -16916,7 +16946,7 @@
         <v>458</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -16929,10 +16959,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -16945,10 +16975,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -16961,10 +16991,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B75" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
@@ -16973,10 +17003,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
@@ -16985,10 +17015,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
@@ -22241,433 +22271,433 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1257" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="1260" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1256" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="1259" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1255" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="1258" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1254" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="1257" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1253" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="1256" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1252" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="1255" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1251" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1254" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1250" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1253" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1249" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1252" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1248" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1251" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1247" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="1250" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1246" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1249" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1245" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1248" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1244" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1247" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1243" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="1246" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1242" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1245" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1241" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="1244" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1240" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1243" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1239" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1242" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1238" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="1241" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1237" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="1240" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1236" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1239" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1235" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1238" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1234" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1237" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1233" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1236" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1232" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1235" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1231" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1234" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1230" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1233" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1229" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1232" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1228" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1231" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1227" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1230" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1226" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1229" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1225" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1228" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1224" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1227" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1223" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="1226" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1222" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1225" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1221" priority="2148"/>
+    <cfRule type="duplicateValues" dxfId="1224" priority="2148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1220" priority="2149"/>
+    <cfRule type="duplicateValues" dxfId="1223" priority="2149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1219" priority="2150"/>
+    <cfRule type="duplicateValues" dxfId="1222" priority="2150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1218" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1221" priority="2152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1217" priority="2205"/>
+    <cfRule type="duplicateValues" dxfId="1220" priority="2205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1216" priority="2206"/>
+    <cfRule type="duplicateValues" dxfId="1219" priority="2206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1215" priority="2207"/>
+    <cfRule type="duplicateValues" dxfId="1218" priority="2207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1214" priority="2208"/>
+    <cfRule type="duplicateValues" dxfId="1217" priority="2208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1213" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1216" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1212" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1215" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1211" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1214" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1210" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1213" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1209" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1212" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1208" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1211" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1207" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1210" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1206" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1209" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1205" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1208" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1204" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1207" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1203" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1206" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1202" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1205" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1201" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1204" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1200" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1203" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1199" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1202" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1198" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1201" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1197" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1200" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1196" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1199" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1195" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1198" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1194" priority="2472"/>
+    <cfRule type="duplicateValues" dxfId="1197" priority="2472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1193" priority="2473"/>
+    <cfRule type="duplicateValues" dxfId="1196" priority="2473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 A70">
-    <cfRule type="duplicateValues" dxfId="1192" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="1195" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1191" priority="2475"/>
+    <cfRule type="duplicateValues" dxfId="1194" priority="2475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1190" priority="2502"/>
+    <cfRule type="duplicateValues" dxfId="1193" priority="2502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1189" priority="2509"/>
+    <cfRule type="duplicateValues" dxfId="1192" priority="2509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1188" priority="2516"/>
+    <cfRule type="duplicateValues" dxfId="1191" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1187" priority="2523"/>
+    <cfRule type="duplicateValues" dxfId="1190" priority="2523"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B15 B17:B18 B21 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1186" priority="2525"/>
+    <cfRule type="duplicateValues" dxfId="1189" priority="2525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B22 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1185" priority="2531"/>
+    <cfRule type="duplicateValues" dxfId="1188" priority="2531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B42 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1184" priority="2535"/>
+    <cfRule type="duplicateValues" dxfId="1187" priority="2535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A48 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1183" priority="2538"/>
+    <cfRule type="duplicateValues" dxfId="1186" priority="2538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B48 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1182" priority="2541"/>
+    <cfRule type="duplicateValues" dxfId="1185" priority="2541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1181" priority="2544"/>
+    <cfRule type="duplicateValues" dxfId="1184" priority="2544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A1:B57 A59:B62 A58 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1180" priority="2546"/>
+    <cfRule type="duplicateValues" dxfId="1183" priority="2546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B57 A75:B75 A59:B62 A58 A71:B71 A63:A70 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1179" priority="2549"/>
+    <cfRule type="duplicateValues" dxfId="1182" priority="2549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1178" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1181" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1177" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1180" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1176" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="1179" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1175" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1178" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1174" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="1177" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1173" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1176" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1172" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1175" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1171" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1174" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="1170" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1173" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1169" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1172" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1168" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1171" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1167" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1170" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1166" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1169" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1165" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1168" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1164" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1167" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1163" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1166" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1162" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1165" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1161" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1164" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1160" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1163" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1159" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1162" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1158" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1161" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1157" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1160" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1156" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1159" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1155" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1158" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1154" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1157" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1153" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1156" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1152" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1151" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1150" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1153" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1149" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1148" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1147" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1146" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1145" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1148" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1144" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="1143" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1142" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1141" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1140" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1139" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1138" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1137" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1136" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1135" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1134" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1133" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1132" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1131" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1130" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1129" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1128" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1127" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1126" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1125" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1124" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1123" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1122" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1121" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1120" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1119" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1118" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1117" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="1116" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1115" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -28721,16 +28751,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -34768,7 +34798,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34813,7 +34843,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34824,9 +34854,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35467,10 +35497,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
+      </c>
+      <c r="B52" t="s">
+        <v>911</v>
       </c>
       <c r="G52" s="7" t="str">
         <f t="shared" si="0"/>
@@ -36394,10 +36424,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="B129" s="28" t="s">
         <v>782</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>783</v>
       </c>
       <c r="G129" s="7" t="str">
         <f t="shared" si="1"/>
@@ -36406,10 +36436,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="B130" s="28" t="s">
         <v>784</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>785</v>
       </c>
       <c r="G130" s="7" t="str">
         <f t="shared" si="1"/>
@@ -36418,10 +36448,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="B131" s="28" t="s">
         <v>790</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>791</v>
       </c>
       <c r="G131" s="7" t="str">
         <f t="shared" ref="G131:G189" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
@@ -36502,10 +36532,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="B138" s="28" t="s">
         <v>811</v>
-      </c>
-      <c r="B138" s="28" t="s">
-        <v>812</v>
       </c>
       <c r="G138" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36514,10 +36544,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="B139" s="28" t="s">
         <v>813</v>
-      </c>
-      <c r="B139" s="28" t="s">
-        <v>814</v>
       </c>
       <c r="G139" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36529,7 +36559,7 @@
         <v>154</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G140" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36541,7 +36571,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G141" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36550,10 +36580,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="B142" s="28" t="s">
         <v>817</v>
-      </c>
-      <c r="B142" s="28" t="s">
-        <v>818</v>
       </c>
       <c r="G142" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36562,10 +36592,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="B143" s="28" t="s">
         <v>819</v>
-      </c>
-      <c r="B143" s="28" t="s">
-        <v>820</v>
       </c>
       <c r="G143" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36574,10 +36604,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="B144" s="28" t="s">
         <v>821</v>
-      </c>
-      <c r="B144" s="28" t="s">
-        <v>822</v>
       </c>
       <c r="G144" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36586,10 +36616,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="B145" s="28" t="s">
         <v>823</v>
-      </c>
-      <c r="B145" s="28" t="s">
-        <v>824</v>
       </c>
       <c r="G145" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36598,10 +36628,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G146" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36610,10 +36640,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G147" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36622,10 +36652,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G148" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36634,10 +36664,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G149" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36646,10 +36676,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G150" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36658,10 +36688,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G151" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36670,10 +36700,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G152" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36682,10 +36712,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G153" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36694,10 +36724,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>855</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>856</v>
+        <v>853</v>
+      </c>
+      <c r="B154" t="s">
+        <v>854</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
@@ -36710,10 +36740,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
+      </c>
+      <c r="B155" t="s">
+        <v>856</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
@@ -36726,10 +36756,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>859</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>860</v>
+        <v>857</v>
+      </c>
+      <c r="B156" t="s">
+        <v>858</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
@@ -36742,10 +36772,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
+      </c>
+      <c r="B157" t="s">
+        <v>860</v>
       </c>
       <c r="G157" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36754,10 +36784,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G158" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36766,10 +36796,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G159" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36778,10 +36808,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G160" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36790,10 +36820,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G161" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36802,10 +36832,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G162" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36814,10 +36844,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G163" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36826,10 +36856,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G164" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36838,10 +36868,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G165" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36850,7 +36880,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>98</v>
@@ -36862,10 +36892,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G167" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36874,10 +36904,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G168" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36886,10 +36916,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G169" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36898,10 +36928,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G170" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36910,10 +36940,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G171" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36922,10 +36952,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G172" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36934,10 +36964,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G173" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36946,10 +36976,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G174" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36958,10 +36988,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G175" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36970,10 +37000,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G176" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36982,10 +37012,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G177" s="7" t="str">
         <f t="shared" si="2"/>
@@ -36994,10 +37024,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G178" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37006,10 +37036,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G179" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37018,10 +37048,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G180" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37030,10 +37060,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G181" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37042,10 +37072,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G182" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37054,10 +37084,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G183" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37066,10 +37096,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G184" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37078,10 +37108,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G185" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37090,10 +37120,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G186" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37102,10 +37132,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G187" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37114,10 +37144,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G188" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37126,10 +37156,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G189" s="7" t="str">
         <f t="shared" si="2"/>
@@ -37141,887 +37171,887 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="1114" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="536"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1113" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1112" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1111" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="527"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1110" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1109" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1108" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="524"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1107" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1106" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1105" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1104" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1103" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="1102" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1101" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1100" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1099" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="1098" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1097" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="1096" priority="472"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1095" priority="471"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="1094" priority="468"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="468"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="1093" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="1092" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="1091" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="450"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="1090" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1089" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1088" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1087" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1086" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="1085" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1084" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1083" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1082" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1081" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1080" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="1079" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="1078" priority="910"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="910"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="1077" priority="912"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1076" priority="935"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="935"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1075" priority="938"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="938"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1074" priority="941"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="1073" priority="944"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1072" priority="948"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="948"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="1071" priority="420"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="1070" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="420"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="1073" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="1069" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="1068" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="1067" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="1066" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="1065" priority="408"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B67 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1064" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="408"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B67">
+    <cfRule type="duplicateValues" dxfId="1067" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1063" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1062" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1061" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="1060" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="1059" priority="1392"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="1392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="1058" priority="1395"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="1395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="1057" priority="1399"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="1399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="1056" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="1055" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="1054" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="1053" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="1052" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="1051" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="1050" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="1049" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="1048" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1047" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1046" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="1045" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="1044" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1043" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1042" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B99 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1041" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B99">
+    <cfRule type="duplicateValues" dxfId="1044" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1040" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="1039" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="1038" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1037" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B100 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1036" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B100">
+    <cfRule type="duplicateValues" dxfId="1039" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1035" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="1034" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="1033" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1032" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1031" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="1030" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="1029" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1028" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="1027" priority="1940"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="1940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="1026" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1025" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1024" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1023" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1022" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1021" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1020" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1019" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1018" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1017" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1016" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1015" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1014" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1013" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1012" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1011" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1010" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1009" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1008" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1007" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1006" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1005" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1004" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1003" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1002" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1001" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1000" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="999" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="998" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="997" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="996" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="995" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="994" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="993" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="992" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="991" priority="2209"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="2209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="990" priority="2210"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="2210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="989" priority="2211"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="2211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="988" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="987" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="986" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="985" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="984" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="983" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="982" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="981" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="980" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="979" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="978" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="977" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="976" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="975" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576 A53:B126 A52">
+    <cfRule type="duplicateValues" dxfId="978" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="974" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="973" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="972" priority="2367"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="2367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="971" priority="2369"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="2369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="970" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="969" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="968" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="967" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B130 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="966" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B130">
+    <cfRule type="duplicateValues" dxfId="969" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="965" priority="2505"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="2505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="964" priority="2506"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="2506"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="963" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="962" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="961" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="960" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="959" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="958" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B136 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="957" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B136 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="956" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576 A53:B136 A52">
+    <cfRule type="duplicateValues" dxfId="960" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B136">
+    <cfRule type="duplicateValues" dxfId="959" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="955" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="954" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="953" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="952" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="951" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="950" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="949" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="948" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="947" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B145 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="946" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B145">
+    <cfRule type="duplicateValues" dxfId="949" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="945" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="944" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="943" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="942" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="941" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="940" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="939" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="938" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="937" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="936" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161:B161 A157:B157 B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="935" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161:B161 B153 A157:A158 B159:B160 B162">
+    <cfRule type="duplicateValues" dxfId="938" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="934" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="933" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="932" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="931" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="930" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="929" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="928" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161:B161 A157:B157 A153:B153 A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="927" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161:B161 A153:B153 A157:A158 B159:B160 B162">
+    <cfRule type="duplicateValues" dxfId="930" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="926" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="925" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157 B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="924" priority="2685"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153 B159:B162">
+    <cfRule type="duplicateValues" dxfId="927" priority="2685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="923" priority="2709"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="2709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="922" priority="2710"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="2710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="921" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="920" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="919" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="918" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="917" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F96 G3:G965">
-    <cfRule type="duplicateValues" dxfId="916" priority="2797"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F51 G3:G965 A53:F96 A52 C52:F52">
+    <cfRule type="duplicateValues" dxfId="919" priority="2797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="915" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:B172">
-    <cfRule type="duplicateValues" dxfId="914" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="duplicateValues" dxfId="913" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="912" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="911" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="910" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="909" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="908" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="907" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="906" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="905" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="904" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="903" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="902" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="901" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="900" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="899" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="898" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="897" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="896" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="895" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="894" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="893" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="892" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="891" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="890" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="889" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="888" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="887" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="886" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="885" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="884" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="883" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="882" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="881" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="880" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="879" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="878" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="877" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="876" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="875" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="874" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="873" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="872" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="871" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="870" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="869" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="868" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="867" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="866" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="865" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="864" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="863" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="862" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="861" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="860" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="859" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="858" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="857" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="856" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="855" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="854" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="853" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="852" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="851" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="850" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="849" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="848" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="847" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="846" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="845" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="844" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="843" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="842" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="841" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="840" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="839" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="838" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="837" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="836" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="835" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="834" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="833" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="832" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="831" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="830" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="829" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="828" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="827" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="826" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="825" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="824" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="823" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="822" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="821" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="820" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38034,9 +38064,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38157,7 +38187,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -38205,7 +38235,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -39676,8 +39706,8 @@
       <c r="A102" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>769</v>
+      <c r="B102" t="s">
+        <v>109</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -39690,10 +39720,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>786</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>787</v>
       </c>
       <c r="G103" s="4" t="str">
         <f>IF(A103&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A103&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A103&amp;CHAR(34)&amp;"));","")</f>
@@ -39702,54 +39732,54 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="G104" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="G105" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="G106" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="G107" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>827</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
+      </c>
+      <c r="B108" t="s">
+        <v>998</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" ref="G108:G133" si="2">IF(A108&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A108&amp;CHAR(34)&amp;"));","")</f>
@@ -39758,10 +39788,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39770,10 +39800,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39782,10 +39812,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39794,10 +39824,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39806,10 +39836,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39818,10 +39848,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B114" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39830,10 +39860,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -39846,10 +39876,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -39862,10 +39892,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B117" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39874,10 +39904,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B118" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39886,10 +39916,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B119" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39898,10 +39928,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B120" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39910,7 +39940,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B121" t="s">
         <v>658</v>
@@ -39922,10 +39952,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B122" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39934,10 +39964,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B123" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39946,10 +39976,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B124" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39958,10 +39988,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B125" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39970,10 +40000,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B126" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39982,10 +40012,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" si="2"/>
@@ -39994,10 +40024,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B128" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" si="2"/>
@@ -44878,511 +44908,514 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="819" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="818" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="817" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="816" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="815" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="814" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="813" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="812" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="811" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="810" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="809" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="808" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="807" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="806" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="805" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="804" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="803" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="802" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="801" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="800" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="799" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="798" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="797" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="796" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="795" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="794" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="793" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
+    <cfRule type="duplicateValues" dxfId="795" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B64">
+    <cfRule type="duplicateValues" dxfId="794" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B58">
+    <cfRule type="duplicateValues" dxfId="793" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B64">
     <cfRule type="duplicateValues" dxfId="792" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="791" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="790" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="789" priority="171"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="788" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="787" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="789" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="788" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="787" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="786" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="785" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="784" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="783" priority="145"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="782" priority="2069"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="2070"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="781" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="780" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="779" priority="2233"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="2234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B98 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="778" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="777" priority="2238"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="2239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="776" priority="2241"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="2242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B16 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="775" priority="2245"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="2246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B19 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="774" priority="2248"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="2249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B40 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="773" priority="2251"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="2252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="772" priority="2254"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="2255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="771" priority="2256"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="2257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="770" priority="2260"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="2261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B88 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="769" priority="2263"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="2264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B91 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="768" priority="2268"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="2269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A98 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="767" priority="2273"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="2274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A129:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="769" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:B101">
+    <cfRule type="duplicateValues" dxfId="768" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:B101 A102">
+    <cfRule type="duplicateValues" dxfId="767" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A102">
     <cfRule type="duplicateValues" dxfId="766" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="765" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="764" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="763" priority="133"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A102 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="762" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="761" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="760" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="759" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A103 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="758" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B103 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="757" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B103 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="756" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103">
+    <cfRule type="duplicateValues" dxfId="760" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B101 A129:B1048576 A125 A103:B103 A102">
+    <cfRule type="duplicateValues" dxfId="759" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="755" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="754" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="753" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="752" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="751" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="750" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B104 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="749" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103:B104">
+    <cfRule type="duplicateValues" dxfId="752" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="748" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="747" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="746" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:B107 A109:B111 A108">
+    <cfRule type="duplicateValues" dxfId="750" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B107 B109:B111">
+    <cfRule type="duplicateValues" dxfId="749" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="745" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="744" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:B111">
-    <cfRule type="duplicateValues" dxfId="743" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B111">
-    <cfRule type="duplicateValues" dxfId="742" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B111 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="741" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114 A117:B118 A120:B122">
-    <cfRule type="duplicateValues" dxfId="740" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B107 B109:B111">
+    <cfRule type="duplicateValues" dxfId="747" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:B107 A109:B111 A108">
+    <cfRule type="duplicateValues" dxfId="746" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B107 B109:B111">
+    <cfRule type="duplicateValues" dxfId="745" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B109:B111 B103:B107">
+    <cfRule type="duplicateValues" dxfId="744" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:B114 A120:B122 A117:A118">
+    <cfRule type="duplicateValues" dxfId="743" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="739" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="738" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="737" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114 B117:B118 B120:B122">
-    <cfRule type="duplicateValues" dxfId="736" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114 B120:B122">
+    <cfRule type="duplicateValues" dxfId="739" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="735" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="734" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="733" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="732" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="731" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="730" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="729" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="728" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="727" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="726" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="725" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="724" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="723" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="722" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="721" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="720" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="719" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="718" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="717" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="716" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="715" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="714" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="713" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="712" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="711" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="710" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="709" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A125 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="708" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="707" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="706" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="705" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="704" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="703" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="702" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="701" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="700" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="699" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="698" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="697" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="696" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="695" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="694" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="693" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="692" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="691" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="690" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="689" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="688" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="687" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="686" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="685" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="684" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="683" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="682" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="681" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="680" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="679" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="678" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="677" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="676" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="675" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="674" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="673" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="672" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="671" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="670" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="669" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="668" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="667" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="666" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="665" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="664" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="663" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="662" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="661" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="660" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="659" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="658" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="657" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="656" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="655" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="654" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="653" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="652" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="651" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45448,16 +45481,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="650" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="649" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="648" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="647" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45469,8 +45502,8 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45750,8 +45783,8 @@
       <c r="A17" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>459</v>
+      <c r="B17" t="s">
+        <v>997</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -45812,10 +45845,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -45825,10 +45858,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>773</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -45838,10 +45871,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -51080,60 +51113,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="646" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="645" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="644" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="643" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="642" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="641" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="640" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="639" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="638" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="637" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="636" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B16 A18:B19 A17">
+    <cfRule type="duplicateValues" dxfId="640" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16 B18:B19">
+    <cfRule type="duplicateValues" dxfId="639" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="635" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="634" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B19 A24:B1048576">
-    <cfRule type="duplicateValues" dxfId="633" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B16 A24:B1048576 A18:B19 A17">
+    <cfRule type="duplicateValues" dxfId="636" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="632" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="631" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="630" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="629" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="628" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="627" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -51855,10 +51891,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -51871,10 +51907,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>777</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -51887,10 +51923,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -51903,10 +51939,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>781</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -51919,32 +51955,32 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>809</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -51952,33 +51988,33 @@
         <v>740</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" ref="G52:G58" si="1">IF(A52&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A52&amp;CHAR(34)&amp;");","")</f>
@@ -51987,10 +52023,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -51999,10 +52035,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -52011,10 +52047,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -52023,10 +52059,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -52035,10 +52071,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B57" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -52047,10 +52083,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G58" s="21" t="str">
         <f t="shared" si="1"/>
@@ -52059,10 +52095,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G59" s="4" t="str">
         <f>IF(A59&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A59&amp;CHAR(34)&amp;");","")</f>
@@ -52071,10 +52107,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B60" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" ref="G60:G63" si="2">IF(A60&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A60&amp;CHAR(34)&amp;");","")</f>
@@ -52083,10 +52119,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B61" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="2"/>
@@ -52095,10 +52131,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B62" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="2"/>
@@ -52107,10 +52143,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="2"/>
@@ -52119,10 +52155,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B64" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G64" s="21" t="str">
         <f>IF(A64&lt;&gt;"","Browser.WebTable.getRowCount("&amp;CHAR(34)&amp;A64&amp;CHAR(34)&amp;");","")</f>
@@ -52131,523 +52167,523 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="626" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A62 A1 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="625" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="624" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="623" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="622" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="621" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="620" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="619" priority="299"/>
-    <cfRule type="duplicateValues" dxfId="618" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="617" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="616" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="615" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="614" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="613" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="611" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="610" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="608" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="607" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="605" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="604" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="602" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A1:B10 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="594" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="593" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="592" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="591" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="590" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="589" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="588" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="587" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="586" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="585" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="584" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1:B15 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="583" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="582" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="581" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="580" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="579" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="577" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="576" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="575" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="574" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="573" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="572" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="571" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="570" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="567" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="565" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="563" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="559" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="557" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="556" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="555" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="554" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="553" priority="725"/>
-    <cfRule type="duplicateValues" dxfId="552" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="551" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="729"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="550" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="549" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="548" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="547" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="546" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="545" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="544" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1:B26 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="543" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="542" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="541" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="540" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="539" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="538" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="536" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="535" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="534" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="533" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="532" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="530" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="529" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="528" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="526" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="525" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="524" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="522" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="521" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="520" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="519" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="518" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="517" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="516" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="515" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="513" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="512" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="511" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="510" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="508" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="507" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="506" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="505" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="503" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="502" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="501" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="500" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="499" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="498" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="497" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="496" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="495" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="494" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="492" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="491" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="490" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="489" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="488" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="487" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="486" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1:B35 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="485" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="484" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="483" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="482" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="481" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="480" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="479" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="478" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="477" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="476" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="475" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="474" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="473" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A62 A1:A43 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="472" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="471" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="470" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="469" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="468" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="467" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="466" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="465" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A1:B47 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="464" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="463" priority="2252"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="2252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="462" priority="2255"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="2255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="461" priority="2256"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="2256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="459" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A1:B49 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="458" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="457" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="456" priority="2461"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="2461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="455" priority="2463"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="2463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="454" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="2469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="453" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="452" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="451" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="450" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="449" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="448" priority="2620"/>
-    <cfRule type="duplicateValues" dxfId="447" priority="2621"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="2620"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="2621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="446" priority="2622"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="2622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="445" priority="2623"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="2623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="444" priority="2627"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="2627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="443" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="442" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="441" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="440" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="439" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="438" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="437" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="436" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="435" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="434" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54980,1220 +55016,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -62156,7 +62192,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62244,7 +62280,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_VF\olympus_test\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1002">
   <si>
     <t>ObjectName</t>
   </si>
@@ -3027,6 +3027,15 @@
   </si>
   <si>
     <t>//input[@aria-labelledby='VFQA_Notification_Contact_Last_Name_Label']</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>//a[.='Block Number for User Group']</t>
+  </si>
+  <si>
+    <t>NumberBlockUser</t>
   </si>
 </sst>
 </file>
@@ -3237,37 +3246,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1261">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1260">
     <dxf>
       <fill>
         <patternFill>
@@ -9433,6 +9412,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -9595,6 +9584,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15780,8 +15779,8 @@
   <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17026,9 +17025,15 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1000</v>
+      </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebLink.click("NumberBlockUser");</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -22271,433 +22276,433 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1260" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="1259" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1259" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="1258" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1258" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="1257" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1257" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="1256" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1256" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="1255" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1255" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="1254" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1254" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1253" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1253" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1252" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1252" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1251" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1251" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1250" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1250" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="1249" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1249" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1248" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1248" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1247" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1247" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1246" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1246" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="1245" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1245" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1244" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1244" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="1243" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1243" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1242" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1242" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1241" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1241" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="1240" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1240" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="1239" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1239" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1238" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1238" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1237" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1237" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1236" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1236" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1235" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1235" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1234" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1234" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1233" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1233" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1232" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1232" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1231" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1231" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1230" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1230" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1229" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1229" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1228" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1228" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1227" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1227" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1226" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1226" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="1225" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1225" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1224" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1224" priority="2148"/>
+    <cfRule type="duplicateValues" dxfId="1223" priority="2148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1223" priority="2149"/>
+    <cfRule type="duplicateValues" dxfId="1222" priority="2149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1222" priority="2150"/>
+    <cfRule type="duplicateValues" dxfId="1221" priority="2150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1221" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1220" priority="2152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1220" priority="2205"/>
+    <cfRule type="duplicateValues" dxfId="1219" priority="2205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1219" priority="2206"/>
+    <cfRule type="duplicateValues" dxfId="1218" priority="2206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1218" priority="2207"/>
+    <cfRule type="duplicateValues" dxfId="1217" priority="2207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1217" priority="2208"/>
+    <cfRule type="duplicateValues" dxfId="1216" priority="2208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1216" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1215" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1215" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1214" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1214" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1213" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1213" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1212" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1212" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1211" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1211" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1210" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1210" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1209" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1209" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1208" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1208" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1207" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1207" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1206" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1206" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1205" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1205" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1204" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1204" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1203" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1203" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1202" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1202" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1201" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1201" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1200" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1200" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1199" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1199" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1198" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1198" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1197" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1197" priority="2472"/>
+    <cfRule type="duplicateValues" dxfId="1196" priority="2472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1196" priority="2473"/>
+    <cfRule type="duplicateValues" dxfId="1195" priority="2473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 A70">
-    <cfRule type="duplicateValues" dxfId="1195" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="1194" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1194" priority="2475"/>
+    <cfRule type="duplicateValues" dxfId="1193" priority="2475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1193" priority="2502"/>
+    <cfRule type="duplicateValues" dxfId="1192" priority="2502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1192" priority="2509"/>
+    <cfRule type="duplicateValues" dxfId="1191" priority="2509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1191" priority="2516"/>
+    <cfRule type="duplicateValues" dxfId="1190" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1190" priority="2523"/>
+    <cfRule type="duplicateValues" dxfId="1189" priority="2523"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B15 B17:B18 B21 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1189" priority="2525"/>
+    <cfRule type="duplicateValues" dxfId="1188" priority="2525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B22 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1188" priority="2531"/>
+    <cfRule type="duplicateValues" dxfId="1187" priority="2531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B42 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1187" priority="2535"/>
+    <cfRule type="duplicateValues" dxfId="1186" priority="2535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A48 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1186" priority="2538"/>
+    <cfRule type="duplicateValues" dxfId="1185" priority="2538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B48 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1185" priority="2541"/>
+    <cfRule type="duplicateValues" dxfId="1184" priority="2541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1184" priority="2544"/>
+    <cfRule type="duplicateValues" dxfId="1183" priority="2544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A1:B57 A59:B62 A58 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1183" priority="2546"/>
+    <cfRule type="duplicateValues" dxfId="1182" priority="2546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B57 A75:B75 A59:B62 A58 A71:B71 A63:A70 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1182" priority="2549"/>
+    <cfRule type="duplicateValues" dxfId="1181" priority="2549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1181" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1180" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1180" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1179" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1179" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="1178" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1178" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1177" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1177" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="1176" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1176" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1175" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1175" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1174" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1174" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1173" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="1173" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1172" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1172" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1171" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1171" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1170" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1170" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1169" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1169" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1168" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1168" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1167" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1167" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1166" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1166" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1165" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1165" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1164" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1164" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1163" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1163" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1162" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1162" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1161" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1161" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1160" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1160" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1159" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1159" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1158" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1158" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1157" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1157" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1156" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1156" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1155" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1154" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1153" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1153" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1152" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1151" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1150" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1149" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1148" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1148" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1147" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="1146" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1145" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1144" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1143" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1142" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1141" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1140" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1139" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1138" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1137" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1136" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1135" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1134" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1133" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1132" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1131" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1130" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1129" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1128" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1127" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1126" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1125" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1124" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1123" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1122" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1121" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1120" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="1119" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1118" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -28751,16 +28756,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -34798,7 +34803,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34843,7 +34848,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34855,8 +34860,8 @@
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36454,7 +36459,7 @@
         <v>790</v>
       </c>
       <c r="G131" s="7" t="str">
-        <f t="shared" ref="G131:G189" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G131:G190" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Scroll_Right_Acc360");</v>
       </c>
     </row>
@@ -37167,891 +37172,900 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B190" s="8"/>
+      <c r="A190" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G190" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("Homepage");</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="1117" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="536"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1116" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1115" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1114" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="527"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1113" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1112" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1111" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="524"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1110" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1109" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1108" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1107" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1106" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="1105" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1104" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1103" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1102" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="1101" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1100" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="1099" priority="472"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1098" priority="471"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="1097" priority="468"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="468"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="1096" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="1095" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="1094" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="450"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="1093" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1092" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1091" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1090" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1089" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="1088" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1087" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1086" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1085" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1084" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1083" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="1082" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="1081" priority="910"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="910"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="1080" priority="912"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1079" priority="935"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="935"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1078" priority="938"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="938"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1077" priority="941"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="1076" priority="944"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1075" priority="948"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="948"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="1074" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="1073" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="1072" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="1071" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="1070" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="1069" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="1068" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="1067" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B67">
-    <cfRule type="duplicateValues" dxfId="1067" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1066" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1065" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1064" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="1063" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="1062" priority="1392"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="1392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="1061" priority="1395"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="1395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="1060" priority="1399"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="1399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="1059" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="1058" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="1057" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="1056" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="1055" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="1054" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="1053" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="1052" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="1051" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1050" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1049" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="1048" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="1047" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1046" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1045" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B99">
-    <cfRule type="duplicateValues" dxfId="1044" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1043" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="1042" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="1041" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1040" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B100">
-    <cfRule type="duplicateValues" dxfId="1039" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1038" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="1037" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="1036" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1035" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1034" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="1033" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="1032" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1031" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="1030" priority="1940"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="1940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="1029" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1028" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1027" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1026" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1025" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1024" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1023" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1022" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1021" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1020" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1019" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1018" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1017" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1016" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1015" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1014" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1013" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1012" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1011" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1010" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1009" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1008" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1007" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1006" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1005" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1004" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1003" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1002" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1001" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1000" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="999" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="998" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="997" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="996" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="995" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="994" priority="2209"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="2209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="993" priority="2210"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="2210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="992" priority="2211"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="2211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="991" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="990" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="989" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="988" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="987" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="986" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="985" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="984" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="983" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="982" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="981" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="980" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="979" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576 A53:B126 A52">
-    <cfRule type="duplicateValues" dxfId="978" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="977" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="976" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="975" priority="2367"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="2367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="974" priority="2369"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="2369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="973" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="972" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="971" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="970" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B130">
-    <cfRule type="duplicateValues" dxfId="969" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="968" priority="2505"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="2505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="967" priority="2506"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="2506"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="966" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="965" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="964" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="963" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="962" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="961" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576 A53:B136 A52">
-    <cfRule type="duplicateValues" dxfId="960" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B136">
-    <cfRule type="duplicateValues" dxfId="959" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="958" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="957" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="956" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="955" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="954" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="953" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="952" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="951" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="950" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B145">
-    <cfRule type="duplicateValues" dxfId="949" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="948" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="947" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="946" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="945" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="944" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="943" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="942" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="941" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="940" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="939" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 B153 A157:A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="938" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="937" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="936" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="935" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="934" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="933" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="932" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="931" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A153:B153 A157:A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="930" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="929" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="928" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="927" priority="2685"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="2685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="926" priority="2709"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="2709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="925" priority="2710"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="2710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="924" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="923" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="922" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="921" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="920" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F51 G3:G965 A53:F96 A52 C52:F52">
-    <cfRule type="duplicateValues" dxfId="919" priority="2797"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F51 A53:F96 A52 C52:F52 G3:G965">
+    <cfRule type="duplicateValues" dxfId="918" priority="2797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="918" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:B172">
-    <cfRule type="duplicateValues" dxfId="917" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="duplicateValues" dxfId="916" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="915" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="914" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="913" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="912" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="911" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="910" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="909" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="908" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="907" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="906" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="905" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="904" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="903" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="902" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="901" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="900" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="899" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="898" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="897" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="896" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="895" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="894" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="893" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="892" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="891" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="890" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="889" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="888" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="887" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="886" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="885" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="884" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="883" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="882" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="881" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="880" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="879" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="878" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="877" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="876" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="875" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="874" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="873" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="872" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="871" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="870" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="869" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="868" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="867" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="866" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="865" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="864" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="863" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="862" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="861" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="860" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="859" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="858" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="857" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="856" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="855" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="854" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="853" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="852" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="851" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="850" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="849" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="848" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="847" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="846" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="845" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="844" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="843" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="842" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="841" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="840" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="839" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="838" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="837" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="836" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="835" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="834" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="833" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="832" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="831" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="830" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="829" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="828" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="827" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="826" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="825" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="824" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="823" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44908,514 +44922,514 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="822" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="821" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="820" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="819" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="818" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="817" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="816" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="815" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="814" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="813" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="812" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="811" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="810" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="809" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="808" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="807" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="806" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="805" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="804" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="803" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="802" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="801" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="800" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="799" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="798" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="797" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="796" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="795" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="794" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="793" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="792" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="791" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="790" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="789" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="788" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="787" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="786" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="785" priority="2070"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="2070"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="784" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="783" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="782" priority="2234"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="2234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B98 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="781" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="780" priority="2239"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="2239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="779" priority="2242"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="2242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B16 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="778" priority="2246"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="2246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B19 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="777" priority="2249"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="2249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B40 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="776" priority="2252"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="2252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="775" priority="2255"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="2255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="774" priority="2257"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="2257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="773" priority="2261"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="2261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B88 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="772" priority="2264"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="2264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B91 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="771" priority="2269"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="2269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A98 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="770" priority="2274"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="2274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="769" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B101">
-    <cfRule type="duplicateValues" dxfId="768" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B101 A102">
-    <cfRule type="duplicateValues" dxfId="767" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="766" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A102 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="765" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="764" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="763" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="762" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A103 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="761" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103">
-    <cfRule type="duplicateValues" dxfId="760" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B101 A129:B1048576 A125 A103:B103 A102">
-    <cfRule type="duplicateValues" dxfId="759" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="758" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="757" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="756" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="755" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="754" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="753" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103:B104">
-    <cfRule type="duplicateValues" dxfId="752" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="751" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B107 A109:B111 A108">
-    <cfRule type="duplicateValues" dxfId="750" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="749" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="748" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="747" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B107 A109:B111 A108">
-    <cfRule type="duplicateValues" dxfId="746" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="745" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B109:B111 B103:B107">
-    <cfRule type="duplicateValues" dxfId="744" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A120:B122 A117:A118">
-    <cfRule type="duplicateValues" dxfId="743" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="742" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="741" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="740" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B120:B122">
-    <cfRule type="duplicateValues" dxfId="739" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="738" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="737" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="736" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="735" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="734" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="733" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="732" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="731" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="730" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="729" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="728" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="727" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="726" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="725" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="724" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="723" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="722" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="721" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="720" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="719" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="718" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="717" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="716" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="715" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="714" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="713" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="712" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A125 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="711" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="710" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="709" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="708" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="707" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="706" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="705" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="704" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="703" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="702" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="701" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="700" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="699" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="698" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="697" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="696" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="695" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="694" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="693" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="692" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="691" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="690" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="689" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="688" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="687" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="686" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="685" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="684" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="683" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="682" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="681" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="680" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="679" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="678" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="677" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="676" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="675" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="674" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="673" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="672" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="671" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="670" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="669" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="668" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="667" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="666" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="665" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="664" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="663" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="662" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="661" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="660" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="659" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="658" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="657" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="656" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="655" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="654" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45481,16 +45495,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="653" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="652" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="651" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="650" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51113,63 +51127,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="649" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="648" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="647" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="646" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="645" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="644" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="643" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="642" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="641" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B16 A18:B19 A17">
-    <cfRule type="duplicateValues" dxfId="640" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="639" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="638" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="637" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B16 A24:B1048576 A18:B19 A17">
-    <cfRule type="duplicateValues" dxfId="636" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="635" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="634" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="633" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="632" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="631" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="630" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -52167,523 +52181,523 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="629" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A62 A1 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="628" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="627" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="626" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="625" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="624" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="623" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="622" priority="299"/>
-    <cfRule type="duplicateValues" dxfId="621" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="620" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="619" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="618" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="617" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="616" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="615" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="614" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="613" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="611" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="610" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="608" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="607" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="605" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="604" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="602" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="601" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="600" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="599" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A1:B10 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="598" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="597" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="596" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="595" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="594" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="593" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="592" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="591" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="590" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="589" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="588" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="587" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1:B15 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="586" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="585" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="584" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="583" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="582" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="581" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="580" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="579" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="577" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="576" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="575" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="574" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="573" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="572" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="571" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="570" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="569" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="568" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="567" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="566" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="565" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="564" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="563" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="562" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="561" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="560" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="559" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="558" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="557" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="556" priority="725"/>
-    <cfRule type="duplicateValues" dxfId="555" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="554" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="729"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="553" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="552" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="551" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="550" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="549" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="548" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="547" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1:B26 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="546" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="545" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="544" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="543" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="542" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="541" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="540" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="539" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="538" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="537" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="536" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="535" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="534" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="533" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="532" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="531" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="530" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="529" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="528" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="527" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="526" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="525" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="524" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="523" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="522" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="521" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="520" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="519" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="518" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="517" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="516" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="515" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="514" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="513" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="512" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="511" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="510" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="509" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="508" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="507" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="506" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="505" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="504" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="503" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="502" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="501" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="500" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="499" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="498" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="497" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="496" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="495" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="494" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="493" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="492" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="491" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="490" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="489" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62 B1:B35 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="488" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="487" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="486" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="485" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="484" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="483" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="482" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="481" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="480" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="479" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="478" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="477" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="476" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A62 A1:A43 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="475" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="474" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="473" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="472" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="471" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="470" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="469" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="468" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A1:B47 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="467" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="466" priority="2252"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="2252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="465" priority="2255"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="2255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="464" priority="2256"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="2256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="463" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="462" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B62 A1:B49 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="461" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="460" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="459" priority="2461"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="2461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="458" priority="2463"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="2463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="457" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="2469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="456" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="455" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="454" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="453" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="452" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="451" priority="2620"/>
-    <cfRule type="duplicateValues" dxfId="450" priority="2621"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="2620"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="2621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="449" priority="2622"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="2622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="448" priority="2623"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="2623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="447" priority="2627"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="2627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="446" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="445" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="444" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="443" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="442" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="441" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="440" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="439" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="438" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="437" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="436" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="435" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55016,1220 +55030,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="434" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="433" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="432" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="431" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="430" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="429" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="428" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="427" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="426" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="425" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="424" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="423" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="422" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="421" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="420" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="419" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="418" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="417" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="416" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="415" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="414" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="413" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="412" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="411" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="410" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="409" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="408" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="407" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="406" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="405" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="404" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="403" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="401" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="400" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="399" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="398" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="397" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="396" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="395" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="394" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="393" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="391" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="390" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="389" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="387" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="386" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="385" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="384" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="383" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="382" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="381" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="380" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="379" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="376" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="375" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="374" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="373" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="372" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="371" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="370" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="369" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="368" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="367" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="365" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="364" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="363" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="362" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="361" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="359" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="358" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="357" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="353" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="352" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="351" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="349" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="348" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="347" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="343" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="342" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="341" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="340" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="339" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="338" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="337" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="336" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="335" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="334" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="333" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="332" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="331" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="330" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="328" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="327" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="325" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="324" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="323" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="322" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="320" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="319" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="318" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="317" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="316" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="315" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="314" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="313" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="312" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="310" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="308" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="307" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="306" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="305" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="304" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="302" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="301" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="300" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="299" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="296" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="293" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="292" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="291" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="285" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="284" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="283" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="282" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="281" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="279" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="278" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="277" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="275" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="273" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="272" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="271" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="265" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="264" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="263" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="262" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="261" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="260" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="259" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="258" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="257" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="256" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="255" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="254" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="253" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="252" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="251" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="250" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="249" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="248" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="247" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="246" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="245" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="244" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="243" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="242" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="241" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="240" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="239" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="238" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="237" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="235" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="233" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="231" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="229" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="228" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="227" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="225" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="223" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="222" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="221" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="219" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="218" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="216" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="214" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="213" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="211" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="210" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="208" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="207" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="205" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="204" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="203" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="202" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="200" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="199" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="197" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="196" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="195" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="194" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="193" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="192" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="190" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="189" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="188" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="187" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="186" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="185" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="184" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="183" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="182" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="180" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="179" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="178" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="177" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="176" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="175" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="174" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="173" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="172" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="171" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="170" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="169" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="168" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="167" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="166" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="165" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="164" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="163" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="162" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="161" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="160" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="159" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="157" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="156" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="155" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="153" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="152" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="151" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="150" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="149" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="148" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="147" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="146" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="145" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="144" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="142" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="140" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="139" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="138" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="137" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="135" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="134" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="133" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="132" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="131" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="130" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="128" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="127" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="126" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="125" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="124" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="122" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="121" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="120" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="118" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="117" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="116" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="115" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="112" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="111" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="110" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="108" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="107" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="106" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="105" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="104" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="103" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="102" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="101" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="100" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="99" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="97" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="96" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="95" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="94" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="93" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="91" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="90" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="89" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="88" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="87" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="86" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="85" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="84" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="81" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="80" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="74" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="72" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="65" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="62" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="61" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="60" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="59" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="58" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="57" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="53" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="51" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="48" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="47" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="46" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="44" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="43" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="42" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="41" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="40" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -62192,7 +62206,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62280,7 +62294,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_VF\olympus_test\VFQA-Parallel\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunganesha\eclipse-workspace\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1011">
   <si>
     <t>ObjectName</t>
   </si>
@@ -3036,6 +3036,33 @@
   </si>
   <si>
     <t>NumberBlockUser</t>
+  </si>
+  <si>
+    <t>OSM_MobileOrderNo_entry</t>
+  </si>
+  <si>
+    <t>//input[@name = '/MobileServiceData/OrderIdentification/OrderNumber_2']</t>
+  </si>
+  <si>
+    <t>changestatus_radio</t>
+  </si>
+  <si>
+    <t>//p[@class = 'radioInput']/input[7]</t>
+  </si>
+  <si>
+    <t>Move_Button</t>
+  </si>
+  <si>
+    <t>//input[@name = 'move']</t>
+  </si>
+  <si>
+    <t>//input[@value = 'Update']</t>
+  </si>
+  <si>
+    <t>Update_Button</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Logout')]</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1260">
+  <dxfs count="1262">
     <dxf>
       <fill>
         <patternFill>
@@ -9584,6 +9611,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15778,7 +15825,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
@@ -22276,433 +22323,433 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1259" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="1261" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1258" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="1260" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1257" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="1259" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1256" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="1258" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1255" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="1257" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1254" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="1256" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1253" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1255" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1252" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1254" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1251" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1253" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1250" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1252" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1249" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="1251" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1248" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1250" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1247" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1249" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1246" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1248" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1245" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="1247" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1244" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1246" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1243" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="1245" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1242" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1244" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1241" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1243" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1240" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="1242" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1239" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="1241" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1238" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1240" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1237" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1239" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1236" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1238" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1235" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1237" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1234" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1236" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1233" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1235" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1232" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1234" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1231" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1233" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1230" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1232" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1229" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1231" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1228" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1230" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1227" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1229" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1226" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1228" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1225" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="1227" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1224" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1226" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1223" priority="2148"/>
+    <cfRule type="duplicateValues" dxfId="1225" priority="2148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1222" priority="2149"/>
+    <cfRule type="duplicateValues" dxfId="1224" priority="2149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1221" priority="2150"/>
+    <cfRule type="duplicateValues" dxfId="1223" priority="2150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1220" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1222" priority="2152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1219" priority="2205"/>
+    <cfRule type="duplicateValues" dxfId="1221" priority="2205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1218" priority="2206"/>
+    <cfRule type="duplicateValues" dxfId="1220" priority="2206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1217" priority="2207"/>
+    <cfRule type="duplicateValues" dxfId="1219" priority="2207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1216" priority="2208"/>
+    <cfRule type="duplicateValues" dxfId="1218" priority="2208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1215" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1217" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1214" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1216" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1213" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1215" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1212" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1214" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1211" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1213" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1210" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1212" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1209" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1211" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1208" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1210" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1207" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1209" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1206" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1208" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1205" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1207" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1204" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1206" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1203" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1205" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1202" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1204" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1201" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1203" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1200" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1202" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1199" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1201" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1198" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1200" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1197" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1199" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1196" priority="2472"/>
+    <cfRule type="duplicateValues" dxfId="1198" priority="2472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1195" priority="2473"/>
+    <cfRule type="duplicateValues" dxfId="1197" priority="2473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 A70">
-    <cfRule type="duplicateValues" dxfId="1194" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="1196" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1193" priority="2475"/>
+    <cfRule type="duplicateValues" dxfId="1195" priority="2475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1192" priority="2502"/>
+    <cfRule type="duplicateValues" dxfId="1194" priority="2502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1191" priority="2509"/>
+    <cfRule type="duplicateValues" dxfId="1193" priority="2509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1190" priority="2516"/>
+    <cfRule type="duplicateValues" dxfId="1192" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1189" priority="2523"/>
+    <cfRule type="duplicateValues" dxfId="1191" priority="2523"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B15 B17:B18 B21 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1188" priority="2525"/>
+    <cfRule type="duplicateValues" dxfId="1190" priority="2525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B22 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1187" priority="2531"/>
+    <cfRule type="duplicateValues" dxfId="1189" priority="2531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B42 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1186" priority="2535"/>
+    <cfRule type="duplicateValues" dxfId="1188" priority="2535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A1:A48 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1185" priority="2538"/>
+    <cfRule type="duplicateValues" dxfId="1187" priority="2538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B1:B48 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1184" priority="2541"/>
+    <cfRule type="duplicateValues" dxfId="1186" priority="2541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1183" priority="2544"/>
+    <cfRule type="duplicateValues" dxfId="1185" priority="2544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75 A1:B57 A59:B62 A58 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1182" priority="2546"/>
+    <cfRule type="duplicateValues" dxfId="1184" priority="2546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B57 A75:B75 A59:B62 A58 A71:B71 A63:A70 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1181" priority="2549"/>
+    <cfRule type="duplicateValues" dxfId="1183" priority="2549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1180" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1182" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1179" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1181" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1178" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="1180" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1177" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1179" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1176" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="1178" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1175" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1177" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1174" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1176" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1173" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1175" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="1172" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1174" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1171" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1173" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1170" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1172" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1169" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1171" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1168" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1170" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1167" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1169" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1166" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1168" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1165" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1167" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1164" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1166" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1163" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1165" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1162" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1164" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1161" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1163" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1160" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1162" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1159" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1161" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1158" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1160" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1157" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1159" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1156" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1158" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1155" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1157" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1154" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1156" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1153" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1152" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1151" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1153" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1150" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1149" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1148" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1147" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1146" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1148" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="1145" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1144" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1143" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1142" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1141" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1140" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1139" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1138" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1137" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1136" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1135" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1134" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1133" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1132" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1131" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1130" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1129" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1128" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1127" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1126" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1125" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1124" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1123" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1122" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1121" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1120" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1119" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="1118" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1117" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -34857,11 +34904,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36012,7 +36059,7 @@
         <v>501</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>502</v>
+        <v>1010</v>
       </c>
       <c r="G94" s="7" t="str">
         <f t="shared" si="1"/>
@@ -36459,7 +36506,7 @@
         <v>790</v>
       </c>
       <c r="G131" s="7" t="str">
-        <f t="shared" ref="G131:G190" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G131:G193" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Scroll_Right_Acc360");</v>
       </c>
     </row>
@@ -37183,889 +37230,925 @@
         <v>Browser.WebButton.click("Homepage");</v>
       </c>
     </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G191" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("changestatus_radio");</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G192" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("Move_Button");</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G193" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("Update_Button");</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="1116" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="536"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1115" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1114" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1113" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="527"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1112" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1111" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1110" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="524"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1109" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1108" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1107" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1106" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1105" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="1104" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1103" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1102" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1101" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="1100" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1099" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="1098" priority="472"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1097" priority="471"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="1096" priority="468"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="468"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="1095" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="1094" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="1093" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="450"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="1092" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1091" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1090" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1089" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1088" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="1087" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1086" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1085" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1084" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1083" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1082" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="1081" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="1080" priority="910"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="910"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="1079" priority="912"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1078" priority="935"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="935"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1077" priority="938"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="938"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1076" priority="941"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="1075" priority="944"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576">
-    <cfRule type="duplicateValues" dxfId="1074" priority="948"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="948"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="1073" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="1072" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="1071" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="1070" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="1069" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="1068" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="1067" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B67">
-    <cfRule type="duplicateValues" dxfId="1066" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1065" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="1067" priority="394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1064" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1063" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="1062" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="1061" priority="1392"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="1392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="1060" priority="1395"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="1395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="1059" priority="1399"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="1399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="1058" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="1057" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="1056" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="1055" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="1054" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="1053" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="1052" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="1051" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="1050" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1049" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1048" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="1047" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="1046" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1045" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1044" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B99">
-    <cfRule type="duplicateValues" dxfId="1043" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1042" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="1041" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="1040" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1039" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B100">
-    <cfRule type="duplicateValues" dxfId="1038" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1037" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="1036" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="1035" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1034" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1033" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="1032" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="1031" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1030" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="1029" priority="1940"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="1940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="1028" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1027" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1026" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1025" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1024" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1023" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1022" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1021" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1020" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1019" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1018" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1017" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1016" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1015" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1014" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1013" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1012" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1011" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1010" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1009" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1008" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1007" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1006" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1005" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1004" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1003" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1002" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1001" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1000" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="999" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="998" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="997" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="996" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="995" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="994" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="993" priority="2209"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="2209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="992" priority="2210"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="2210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="991" priority="2211"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="2211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="990" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="2216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="989" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="988" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="987" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="986" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="985" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="984" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="983" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="982" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="981" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="980" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="979" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="978" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576 A53:B126 A52">
-    <cfRule type="duplicateValues" dxfId="977" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576">
-    <cfRule type="duplicateValues" dxfId="976" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="975" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="974" priority="2367"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="2367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="973" priority="2369"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="2369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="972" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="971" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="970" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="969" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B130">
-    <cfRule type="duplicateValues" dxfId="968" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="967" priority="2505"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="2505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="966" priority="2506"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="2506"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="965" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="964" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="963" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="962" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="961" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="960" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A191:B1048576 A53:B136 A52">
-    <cfRule type="duplicateValues" dxfId="959" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B136">
-    <cfRule type="duplicateValues" dxfId="958" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A189 A191:A1048576">
-    <cfRule type="duplicateValues" dxfId="957" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="956" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="955" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="954" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="953" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="952" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="951" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="950" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="949" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B191:B1048576 B53:B145">
-    <cfRule type="duplicateValues" dxfId="948" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="947" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="946" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="945" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="944" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="943" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="942" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="941" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="940" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="939" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="938" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 B153 A157:A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="937" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="936" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="935" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="934" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="933" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="932" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="931" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="930" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A153:B153 A157:A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="929" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="928" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="927" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="926" priority="2685"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="2685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="925" priority="2709"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="2709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="924" priority="2710"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="2710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="923" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="922" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="921" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="920" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="919" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F51 A53:F96 A52 C52:F52 G3:G965">
-    <cfRule type="duplicateValues" dxfId="918" priority="2797"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="2797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="917" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:B172">
-    <cfRule type="duplicateValues" dxfId="916" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="duplicateValues" dxfId="915" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="914" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="913" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="912" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="911" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="910" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="909" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="908" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="907" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="906" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="905" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="904" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="903" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="902" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="901" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="900" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="899" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="898" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="897" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="896" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="895" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="894" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="893" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="892" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="891" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="890" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="889" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="888" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="887" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="886" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="885" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="884" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="883" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="882" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="881" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="880" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="879" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="878" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="877" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="876" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="875" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="874" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="873" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="872" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="871" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="870" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="869" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="868" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="867" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="866" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="865" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="864" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="863" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="862" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="861" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="860" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="859" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="858" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="857" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="856" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="855" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="854" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="853" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="852" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="851" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="850" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="849" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="848" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="847" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="846" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="845" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="844" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="843" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="842" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="841" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="840" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="839" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="838" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="837" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="836" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="835" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="834" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="833" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="832" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="831" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="830" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="829" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="828" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="827" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="826" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="825" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="824" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="823" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="822" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38078,9 +38161,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40048,97 +40131,103 @@
         <v>Browser.WebEdit.Set("Primary_MSISDN1", getdata("Primary_MSISDN1"));</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1003</v>
+      </c>
       <c r="G129" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebEdit.Set("OSM_MobileOrderNo_entry", getdata("OSM_MobileOrderNo_entry"));</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G130" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G131" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G132" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G133" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G134" s="4" t="str">
         <f t="shared" ref="G134:G160" si="3">IF(A134&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A134&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A134&amp;CHAR(34)&amp;"));","")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G135" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G136" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G137" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G138" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G139" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G142" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -44922,370 +45011,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="821" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="820" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="819" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="818" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="817" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="816" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="815" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
+    <cfRule type="duplicateValues" dxfId="816" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
+    <cfRule type="duplicateValues" dxfId="815" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
     <cfRule type="duplicateValues" dxfId="814" priority="243"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="813" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="812" priority="241"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="811" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="810" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="809" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="808" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="807" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="806" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="805" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="804" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
+    <cfRule type="duplicateValues" dxfId="805" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A40">
+    <cfRule type="duplicateValues" dxfId="804" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:B40 A39">
     <cfRule type="duplicateValues" dxfId="803" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40">
+  <conditionalFormatting sqref="A40:B40 A39">
     <cfRule type="duplicateValues" dxfId="802" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B40 A39">
+  <conditionalFormatting sqref="B40">
     <cfRule type="duplicateValues" dxfId="801" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B40 A39">
+  <conditionalFormatting sqref="B39">
     <cfRule type="duplicateValues" dxfId="800" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="799" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="798" priority="188"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="797" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="796" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="795" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
+    <cfRule type="duplicateValues" dxfId="796" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B64">
+    <cfRule type="duplicateValues" dxfId="795" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B58">
     <cfRule type="duplicateValues" dxfId="794" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B64">
+  <conditionalFormatting sqref="B57:B64">
     <cfRule type="duplicateValues" dxfId="793" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="792" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="791" priority="172"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="790" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="789" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="788" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="789" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="788" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="787" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="786" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="B67:B88">
+    <cfRule type="duplicateValues" dxfId="786" priority="2072"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
     <cfRule type="duplicateValues" dxfId="785" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="784" priority="2070"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="783" priority="144"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="782" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="781" priority="2234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B98 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="780" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="2236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B98 A125 A129:B1048576">
+    <cfRule type="duplicateValues" dxfId="782" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="779" priority="2239"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="2241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="778" priority="2242"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A1:B16 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="777" priority="2246"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="2248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B19 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="776" priority="2249"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="2251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B1:B40 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="775" priority="2252"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="2254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="774" priority="2255"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="2257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="773" priority="2257"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="2259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="772" priority="2261"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="2263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B88 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="771" priority="2264"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="2266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 B93 B1:B91 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="770" priority="2269"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="2271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A98 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="769" priority="2274"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="2276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124 A129:B1048576 A125">
-    <cfRule type="duplicateValues" dxfId="768" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B101">
-    <cfRule type="duplicateValues" dxfId="767" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B101 A102">
-    <cfRule type="duplicateValues" dxfId="766" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="765" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125 A1:A102 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="764" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="763" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="762" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="763" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A103 A129:A1048576">
+    <cfRule type="duplicateValues" dxfId="762" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B103 B129:B1048576">
     <cfRule type="duplicateValues" dxfId="761" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125 A1:A103 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="760" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103">
-    <cfRule type="duplicateValues" dxfId="759" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B101 A129:B1048576 A125 A103:B103 A102">
-    <cfRule type="duplicateValues" dxfId="758" priority="116"/>
+  <conditionalFormatting sqref="A124:B124 A1:B101 A125 A103:B103 A102 A129:B1048576">
+    <cfRule type="duplicateValues" dxfId="760" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="757" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="756" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="duplicateValues" dxfId="757" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="756" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
     <cfRule type="duplicateValues" dxfId="755" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="A104:B104">
     <cfRule type="duplicateValues" dxfId="754" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
+  <conditionalFormatting sqref="B124 B1:B101 B103:B104 B129:B1048576">
     <cfRule type="duplicateValues" dxfId="753" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="752" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103:B104">
-    <cfRule type="duplicateValues" dxfId="751" priority="109"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="750" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B107 A109:B111 A108">
-    <cfRule type="duplicateValues" dxfId="749" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B107 B109:B111">
+    <cfRule type="duplicateValues" dxfId="750" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A111">
+    <cfRule type="duplicateValues" dxfId="749" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
     <cfRule type="duplicateValues" dxfId="748" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A111">
+  <conditionalFormatting sqref="A105:B107 A109:B111 A108">
     <cfRule type="duplicateValues" dxfId="747" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
     <cfRule type="duplicateValues" dxfId="746" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:B107 A109:B111 A108">
+  <conditionalFormatting sqref="B124 B1:B101 B109:B111 B103:B107 B129:B1048576">
     <cfRule type="duplicateValues" dxfId="745" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="744" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B109:B111 B103:B107">
-    <cfRule type="duplicateValues" dxfId="743" priority="101"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A120:B122 A117:A118">
-    <cfRule type="duplicateValues" dxfId="742" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="741" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="740" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="739" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B120:B122">
-    <cfRule type="duplicateValues" dxfId="738" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="737" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="736" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="735" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="734" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="733" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="732" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
+    <cfRule type="duplicateValues" dxfId="733" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118">
+    <cfRule type="duplicateValues" dxfId="732" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118">
     <cfRule type="duplicateValues" dxfId="731" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118">
+  <conditionalFormatting sqref="B112:B114">
     <cfRule type="duplicateValues" dxfId="730" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118">
+  <conditionalFormatting sqref="A112:B114">
     <cfRule type="duplicateValues" dxfId="729" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="728" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="727" priority="85"/>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="728" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:B119">
+    <cfRule type="duplicateValues" dxfId="727" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
     <cfRule type="duplicateValues" dxfId="726" priority="67"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="725" priority="66"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="725" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:B119">
+    <cfRule type="duplicateValues" dxfId="723" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="724" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="723" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119:B119">
     <cfRule type="duplicateValues" dxfId="722" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
     <cfRule type="duplicateValues" dxfId="721" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="720" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="719" priority="60"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="718" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="717" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="716" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="715" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="714" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="713" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="712" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="711" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A122 A124:A125 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="710" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="709" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="708" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="707" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="706" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="705" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="704" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="703" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="702" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="701" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="700" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="701" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="duplicateValues" dxfId="700" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
     <cfRule type="duplicateValues" dxfId="699" priority="48"/>
@@ -45308,128 +45403,128 @@
   <conditionalFormatting sqref="B125">
     <cfRule type="duplicateValues" dxfId="693" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="692" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="691" priority="40"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="690" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="689" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="688" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="687" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="686" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="685" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="684" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="683" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="682" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="681" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="680" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B126">
+    <cfRule type="duplicateValues" dxfId="681" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="680" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="679" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+  <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="678" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+  <conditionalFormatting sqref="A126:B126">
     <cfRule type="duplicateValues" dxfId="677" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="676" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
+  <conditionalFormatting sqref="B126">
     <cfRule type="duplicateValues" dxfId="675" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="674" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="673" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="672" priority="21"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="671" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="670" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="669" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="668" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="667" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="666" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="665" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="664" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="663" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="662" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="661" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
+    <cfRule type="duplicateValues" dxfId="662" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="661" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
     <cfRule type="duplicateValues" dxfId="660" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
+  <conditionalFormatting sqref="B128">
     <cfRule type="duplicateValues" dxfId="659" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
+  <conditionalFormatting sqref="A128:B128">
     <cfRule type="duplicateValues" dxfId="658" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
     <cfRule type="duplicateValues" dxfId="657" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
+  <conditionalFormatting sqref="B128">
     <cfRule type="duplicateValues" dxfId="656" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
+  <conditionalFormatting sqref="A128">
     <cfRule type="duplicateValues" dxfId="655" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
+  <conditionalFormatting sqref="B102">
     <cfRule type="duplicateValues" dxfId="654" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="653" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="652" priority="1"/>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="duplicateValues" dxfId="653" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="duplicateValues" dxfId="652" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1077">
   <si>
     <t>ObjectName</t>
   </si>
@@ -3084,6 +3084,183 @@
   </si>
   <si>
     <t>//label[contains(text(),'STBSerialNumber')]/../../../following-sibling::tr//textarea</t>
+  </si>
+  <si>
+    <t>OSM_Refresh1</t>
+  </si>
+  <si>
+    <t>//input[@title="Search using the current query"]</t>
+  </si>
+  <si>
+    <t>//textarea[@aria-labelledby="Description_Label"]</t>
+  </si>
+  <si>
+    <t>DAM_logout</t>
+  </si>
+  <si>
+    <t>//a[@title='Logout']</t>
+  </si>
+  <si>
+    <t>DAM_edit</t>
+  </si>
+  <si>
+    <t>//a[@class='atxtdecoration']</t>
+  </si>
+  <si>
+    <t>DAM_delete</t>
+  </si>
+  <si>
+    <t>//*[@alt='delete']</t>
+  </si>
+  <si>
+    <t>DAM_Apps_tab</t>
+  </si>
+  <si>
+    <t>//a[text()='DAM Apps']</t>
+  </si>
+  <si>
+    <t>DAM_App_delete</t>
+  </si>
+  <si>
+    <t>//img[@alt='Delete']</t>
+  </si>
+  <si>
+    <t>DAM_APP_Edit</t>
+  </si>
+  <si>
+    <t>//img[@class='edit-icon']</t>
+  </si>
+  <si>
+    <t>DAM_APP_Tabdelete</t>
+  </si>
+  <si>
+    <t>//a[@class='detail-icon-link']</t>
+  </si>
+  <si>
+    <t>Portal_Users</t>
+  </si>
+  <si>
+    <t>//a[text()='Portal Users'][1]</t>
+  </si>
+  <si>
+    <t>DAM_Upload_APP</t>
+  </si>
+  <si>
+    <t>//input[@name='iconUrl']</t>
+  </si>
+  <si>
+    <t>DAM_APP_Submit</t>
+  </si>
+  <si>
+    <t>//input[@class='btn btn-lg btn-success btn-block pu_adduserbtn ' and @type='submit']</t>
+  </si>
+  <si>
+    <t>DAM_Select_app</t>
+  </si>
+  <si>
+    <t>//*[@id="clickEvent"]/li[7]/li/span</t>
+  </si>
+  <si>
+    <t>DAM_EditSelect_app</t>
+  </si>
+  <si>
+    <t>//*[@id="myUL1"]/li[2]/li/span</t>
+  </si>
+  <si>
+    <t>DAM_Edit_Submit</t>
+  </si>
+  <si>
+    <t>//input[@class='btn btn-lg btn-success btn-block pu_adduserbtn damUserEdit']</t>
+  </si>
+  <si>
+    <t>DAM_search_icon</t>
+  </si>
+  <si>
+    <t>//img[@class='search-icon']</t>
+  </si>
+  <si>
+    <t>DAM_Edit_App_Submit</t>
+  </si>
+  <si>
+    <t>//input[@class='btn btn-lg btn-success btn-block mmu_edituserbtn ']</t>
+  </si>
+  <si>
+    <t>DAM_APP_delete_yes</t>
+  </si>
+  <si>
+    <t>//input[@value='Yes']</t>
+  </si>
+  <si>
+    <t>Portal_AddUser_button</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-primary adduser-btn']</t>
+  </si>
+  <si>
+    <t>Portal_Submit_button</t>
+  </si>
+  <si>
+    <t>//input[@class='btn btn-lg btn-success btn-block pu_adduserbtn ']</t>
+  </si>
+  <si>
+    <t>PortalUsers_Search_button</t>
+  </si>
+  <si>
+    <t>//button[@id='myInput' and @class='search_btn'][1]</t>
+  </si>
+  <si>
+    <t>PortalUsers_Edit</t>
+  </si>
+  <si>
+    <t>//img[@alt='edit']</t>
+  </si>
+  <si>
+    <t>Portal_Edit_Submit_button</t>
+  </si>
+  <si>
+    <t>//input[@class='btn btn-lg btn-success btn-block pu_edituserbtn ']</t>
+  </si>
+  <si>
+    <t>Portal_Delete_button</t>
+  </si>
+  <si>
+    <t>//fieldset[@ng-click='puc.userDeleteOpen(data)']</t>
+  </si>
+  <si>
+    <t>Portal_Yes_button</t>
+  </si>
+  <si>
+    <t>//input[@class='btn btn-lg btn-success btn-block mmu_ecsvuser-upld-btn']</t>
+  </si>
+  <si>
+    <t>DAM_App_category</t>
+  </si>
+  <si>
+    <t>//select[@id='select' and @name='category']</t>
+  </si>
+  <si>
+    <t>DAM_APP_Type</t>
+  </si>
+  <si>
+    <t>//select[@id='select' and @name='type']</t>
+  </si>
+  <si>
+    <t>Portal_Role</t>
+  </si>
+  <si>
+    <t>//select[@name="porRole"]</t>
+  </si>
+  <si>
+    <t>DAM_Users_table</t>
+  </si>
+  <si>
+    <t>//table[@id='example']</t>
+  </si>
+  <si>
+    <t>Portal_Users_table</t>
+  </si>
+  <si>
+    <t>//tbody[@id='myTable']</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3224,14 +3401,809 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1289">
+  <dxfs count="1370">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -16045,8 +17017,8 @@
   <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17003,10 +17975,10 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>1000</v>
       </c>
       <c r="G78" s="4" t="str">
@@ -17015,10 +17987,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>1006</v>
       </c>
       <c r="G79" s="4" t="str">
@@ -17027,102 +17999,150 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1022</v>
+      </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_logout");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1024</v>
+      </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_edit");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1026</v>
+      </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_delete");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1028</v>
+      </c>
       <c r="G83" s="4" t="str">
         <f t="shared" ref="G83:G146" si="3">IF(A83&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A83&amp;CHAR(34)&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_Apps_tab");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1030</v>
+      </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_App_delete");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1032</v>
+      </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_APP_Edit");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1034</v>
+      </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("DAM_APP_Tabdelete");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1036</v>
+      </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+        <v>Browser.WebLink.click("Portal_Users");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G93" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G95" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22260,433 +23280,448 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1288" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="1369" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1287" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="1368" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1286" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="1367" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1285" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="1366" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1284" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="1365" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1283" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="1364" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1282" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1363" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1281" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1362" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1280" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1361" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1279" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1360" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1278" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="1359" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="1277" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1358" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="1276" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1357" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="1275" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1356" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="1274" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="1355" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1273" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1354" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="1272" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="1353" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="1271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1352" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="1270" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1351" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1269" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="1350" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="1268" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="1349" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="1267" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1348" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1266" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1347" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="1265" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1346" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1264" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1345" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="1263" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1344" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1262" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1343" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1261" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1342" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1260" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1341" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1259" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1340" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="1258" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1339" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1257" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1338" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1256" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1337" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1255" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1336" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1254" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="1335" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="1253" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1334" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1252" priority="2148"/>
+    <cfRule type="duplicateValues" dxfId="1333" priority="2153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1251" priority="2149"/>
+    <cfRule type="duplicateValues" dxfId="1332" priority="2154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="1250" priority="2150"/>
+    <cfRule type="duplicateValues" dxfId="1331" priority="2155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1249" priority="2152"/>
+    <cfRule type="duplicateValues" dxfId="1330" priority="2157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1248" priority="2205"/>
+    <cfRule type="duplicateValues" dxfId="1329" priority="2210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="1247" priority="2206"/>
+    <cfRule type="duplicateValues" dxfId="1328" priority="2211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="1246" priority="2207"/>
+    <cfRule type="duplicateValues" dxfId="1327" priority="2212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="1245" priority="2208"/>
+    <cfRule type="duplicateValues" dxfId="1326" priority="2213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1244" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1325" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1243" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1324" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1242" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1323" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A59:B62 A58">
-    <cfRule type="duplicateValues" dxfId="1241" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1322" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1240" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1321" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1239" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1320" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1238" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1319" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1237" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1318" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B57 B59:B62">
-    <cfRule type="duplicateValues" dxfId="1236" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1317" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="1235" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1316" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1234" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1315" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1233" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1314" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1232" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1313" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1231" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1312" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1230" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1311" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1229" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1310" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A69">
-    <cfRule type="duplicateValues" dxfId="1228" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1309" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1227" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1308" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1226" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1307" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1225" priority="2472"/>
+    <cfRule type="duplicateValues" dxfId="1306" priority="2477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="1224" priority="2473"/>
+    <cfRule type="duplicateValues" dxfId="1305" priority="2478"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B71 A70">
-    <cfRule type="duplicateValues" dxfId="1223" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="1304" priority="2479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1222" priority="2475"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1221" priority="2502"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1220" priority="2509"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B75 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1219" priority="2516"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B75 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1218" priority="2523"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 B1:B15 B17:B18 B21 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1217" priority="2525"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 B1:B22 B30 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1216" priority="2531"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 B1:B42 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1215" priority="2535"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75 A1:A48 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1214" priority="2538"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 B1:B48 B78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1213" priority="2541"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75 A78:A1048576">
-    <cfRule type="duplicateValues" dxfId="1212" priority="2544"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B75 A1:B57 A59:B62 A58 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1211" priority="2546"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B57 A75:B75 A59:B62 A58 A71:B71 A63:A70 A78:B1048576">
-    <cfRule type="duplicateValues" dxfId="1210" priority="2549"/>
+    <cfRule type="duplicateValues" dxfId="1303" priority="2480"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A88:A1048576">
+    <cfRule type="duplicateValues" dxfId="1302" priority="2507"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A1:A2 A15 A17:A18 A21 A30 A88:A1048576">
+    <cfRule type="duplicateValues" dxfId="1301" priority="2514"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:B75 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1300" priority="2521"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:B75 A88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1299" priority="2528"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 B1:B15 B17:B18 B21 B30 B88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1298" priority="2530"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 B1:B22 B30 B88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1297" priority="2536"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 B1:B42 B88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1296" priority="2540"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A1:A48 A88:A1048576">
+    <cfRule type="duplicateValues" dxfId="1295" priority="2543"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 B1:B48 B88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1294" priority="2546"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A88:A1048576">
+    <cfRule type="duplicateValues" dxfId="1293" priority="2549"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:B75 A1:B57 A59:B62 A58 A88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1292" priority="2551"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B57 A75:B75 A59:B62 A58 A71:B71 A63:A70 A88:B1048576">
+    <cfRule type="duplicateValues" dxfId="1291" priority="2554"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1209" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1290" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1208" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1289" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1207" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="1288" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1206" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1287" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B72">
-    <cfRule type="duplicateValues" dxfId="1205" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="1286" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1204" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1285" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="duplicateValues" dxfId="1203" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="1284" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1202" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1283" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="1201" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1282" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B74">
-    <cfRule type="duplicateValues" dxfId="1200" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1281" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1199" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1280" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1198" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="1279" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1197" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1278" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1196" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1277" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1195" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1276" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1194" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1275" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1193" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1274" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="duplicateValues" dxfId="1192" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1273" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1191" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1272" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1190" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1271" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1189" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1270" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1188" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1269" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1187" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1268" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1186" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1267" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1185" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1266" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B68">
-    <cfRule type="duplicateValues" dxfId="1184" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1265" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1183" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1264" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1182" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1263" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1181" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1262" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1180" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1261" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1179" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1260" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1178" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1259" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1177" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1258" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1176" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1257" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1175" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1256" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="duplicateValues" dxfId="1174" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1255" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1173" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1254" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1172" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1253" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1171" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1252" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1170" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1251" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1169" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1250" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1168" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1249" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1167" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1248" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1166" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1247" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1165" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1246" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1164" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1245" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1163" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1244" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1162" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1243" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1161" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1242" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1160" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1241" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1159" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1240" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1158" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1239" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1157" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1238" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1156" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1237" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1155" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1236" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="1154" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1235" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1153" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1234" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1152" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1233" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="1151" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1232" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1150" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1231" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="1149" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1230" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1148" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1229" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="1147" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1228" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:B77">
-    <cfRule type="duplicateValues" dxfId="1146" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1227" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A87">
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A87">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:B87">
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:B87">
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:B87">
+    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -28742,16 +29777,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -34792,7 +35827,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34840,7 +35875,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34849,11 +35884,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36451,7 +37486,7 @@
         <v>790</v>
       </c>
       <c r="G131" s="4" t="str">
-        <f t="shared" ref="G131:G190" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G131:G194" si="2">IF(A131&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A131&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("Scroll_Right_Acc360");</v>
       </c>
     </row>
@@ -37182,6 +38217,10 @@
       <c r="B191" s="4" t="s">
         <v>1009</v>
       </c>
+      <c r="G191" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("LineItem_RecordSet");</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
@@ -37190,969 +38229,1212 @@
       <c r="B192" s="4" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G192" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("changestatus_radio");</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>1012</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G193" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("Move_Button");</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>1015</v>
       </c>
+      <c r="G194" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Browser.WebButton.click("Update_Button");</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G195" s="4" t="str">
+        <f t="shared" ref="G195" si="3">IF(A195&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A195&amp;CHAR(34)&amp;");","")</f>
+        <v>Browser.WebButton.click("OSM_Refresh1");</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1066</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A189 A195:A1048576">
-    <cfRule type="duplicateValues" dxfId="1145" priority="557"/>
+  <conditionalFormatting sqref="A95:A99 A49 A1:A2 A66 A14 A166:A168 A170:A172 A177:A183 A188:A189 A211:A1048576">
+    <cfRule type="duplicateValues" dxfId="1226" priority="590"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1144" priority="550"/>
+    <cfRule type="duplicateValues" dxfId="1225" priority="583"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1143" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="1224" priority="582"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="1142" priority="548"/>
+    <cfRule type="duplicateValues" dxfId="1223" priority="581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="1141" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="1222" priority="580"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1140" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="1221" priority="579"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1139" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="1220" priority="578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="1138" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="1219" priority="575"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="1137" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="1218" priority="574"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1136" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="1217" priority="573"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1135" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="1216" priority="571"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="1134" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="1215" priority="570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="1133" priority="518"/>
+    <cfRule type="duplicateValues" dxfId="1214" priority="551"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1132" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="1213" priority="550"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="1131" priority="514"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B189 A195:B1048576">
-    <cfRule type="duplicateValues" dxfId="1130" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="1212" priority="547"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B99 A1:B17 A49:B49 B46:B48 A66:B66 B67 A28:B30 A27 A20:B26 A18:A19 A166:B168 A170:B172 A177:B183 A188:B189 A211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1211" priority="546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="1129" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="1210" priority="533"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1128" priority="494"/>
+    <cfRule type="duplicateValues" dxfId="1209" priority="527"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="1127" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="1208" priority="526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1126" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="1207" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="1125" priority="489"/>
+    <cfRule type="duplicateValues" dxfId="1206" priority="522"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="1124" priority="488"/>
+    <cfRule type="duplicateValues" dxfId="1205" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="1123" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="1204" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="1122" priority="471"/>
+    <cfRule type="duplicateValues" dxfId="1203" priority="504"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="1121" priority="469"/>
+    <cfRule type="duplicateValues" dxfId="1202" priority="502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1120" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="1201" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1119" priority="466"/>
+    <cfRule type="duplicateValues" dxfId="1200" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1118" priority="465"/>
+    <cfRule type="duplicateValues" dxfId="1199" priority="498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="1117" priority="463"/>
+    <cfRule type="duplicateValues" dxfId="1198" priority="496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="1116" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="1197" priority="487"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1115" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="1196" priority="486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1114" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="1195" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1113" priority="451"/>
+    <cfRule type="duplicateValues" dxfId="1194" priority="484"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1112" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="1193" priority="483"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="1111" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="1192" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="1110" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="1191" priority="480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="1109" priority="931"/>
+    <cfRule type="duplicateValues" dxfId="1190" priority="964"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="1108" priority="933"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576">
-    <cfRule type="duplicateValues" dxfId="1107" priority="956"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576">
-    <cfRule type="duplicateValues" dxfId="1106" priority="959"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576">
-    <cfRule type="duplicateValues" dxfId="1105" priority="962"/>
+    <cfRule type="duplicateValues" dxfId="1189" priority="966"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B30 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1188" priority="989"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B39 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1187" priority="992"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B46:B49 B66:B67 B28:B42 B20:B26 B166:B168 B170:B172 B177:B183 B188:B189 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1186" priority="995"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B66:B67">
-    <cfRule type="duplicateValues" dxfId="1104" priority="965"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576">
-    <cfRule type="duplicateValues" dxfId="1103" priority="969"/>
+    <cfRule type="duplicateValues" dxfId="1185" priority="998"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B46:B49 B66:B67 B166:B168 B170:B172 B177:B183 B188:B189 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1184" priority="1002"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="1102" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="1183" priority="474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="1101" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="1182" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="1100" priority="435"/>
+    <cfRule type="duplicateValues" dxfId="1181" priority="468"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A61">
-    <cfRule type="duplicateValues" dxfId="1099" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="1180" priority="466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="duplicateValues" dxfId="1098" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="1179" priority="465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="1097" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="1178" priority="463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="1096" priority="429"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576 B53:B67">
-    <cfRule type="duplicateValues" dxfId="1095" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="1177" priority="462"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B99 B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B53:B67 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1176" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1094" priority="415"/>
+    <cfRule type="duplicateValues" dxfId="1175" priority="448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1093" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1174" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1092" priority="408"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A189 A195:A1048576">
-    <cfRule type="duplicateValues" dxfId="1091" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="1173" priority="441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A99 A1:A86 A166:A168 A170:A172 A177:A183 A188:A189 A211:A1048576">
+    <cfRule type="duplicateValues" dxfId="1172" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68 A71:A86">
-    <cfRule type="duplicateValues" dxfId="1090" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="1171" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B68 B70 A71:B86">
-    <cfRule type="duplicateValues" dxfId="1089" priority="1416"/>
+    <cfRule type="duplicateValues" dxfId="1170" priority="1449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68 B70:B86">
-    <cfRule type="duplicateValues" dxfId="1088" priority="1420"/>
+    <cfRule type="duplicateValues" dxfId="1169" priority="1453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="1087" priority="398"/>
+    <cfRule type="duplicateValues" dxfId="1168" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 A87:B87">
-    <cfRule type="duplicateValues" dxfId="1086" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="1167" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="1085" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="1166" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94 B87">
-    <cfRule type="duplicateValues" dxfId="1084" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="1165" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="1083" priority="399"/>
+    <cfRule type="duplicateValues" dxfId="1164" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="1082" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="1163" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92 B89:B91">
-    <cfRule type="duplicateValues" dxfId="1081" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="1162" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B92">
-    <cfRule type="duplicateValues" dxfId="1080" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="1161" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="1079" priority="384"/>
+    <cfRule type="duplicateValues" dxfId="1160" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1078" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="1159" priority="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1077" priority="382"/>
+    <cfRule type="duplicateValues" dxfId="1158" priority="415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B93">
-    <cfRule type="duplicateValues" dxfId="1076" priority="381"/>
+    <cfRule type="duplicateValues" dxfId="1157" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="1075" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="1156" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1074" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="1073" priority="377"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576 B53:B99">
-    <cfRule type="duplicateValues" dxfId="1072" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B53:B99 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1153" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1071" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="1070" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="1069" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1068" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576 B53:B100">
-    <cfRule type="duplicateValues" dxfId="1067" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B20:B26 B28:B51 B166:B168 B170:B172 B177:B183 B188:B189 B53:B100 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1148" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1066" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="1065" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="1064" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="1063" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1062" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="duplicateValues" dxfId="1061" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="1060" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="1059" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102">
-    <cfRule type="duplicateValues" dxfId="1058" priority="1961"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="1994"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A102">
-    <cfRule type="duplicateValues" dxfId="1057" priority="1963"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="1996"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1056" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1055" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1054" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1053" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1052" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1051" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1050" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="317"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1049" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1048" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1047" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1046" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1045" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1044" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1043" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1042" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1041" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1040" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1039" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1038" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1037" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1036" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1035" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1034" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1033" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1032" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1031" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1030" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1029" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1028" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1027" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="1026" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B116">
-    <cfRule type="duplicateValues" dxfId="1025" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B116">
-    <cfRule type="duplicateValues" dxfId="1024" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A116">
-    <cfRule type="duplicateValues" dxfId="1023" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="1022" priority="2230"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="2263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119">
-    <cfRule type="duplicateValues" dxfId="1021" priority="2231"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="2264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B119">
-    <cfRule type="duplicateValues" dxfId="1020" priority="2232"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="2265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A119">
-    <cfRule type="duplicateValues" dxfId="1019" priority="2237"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="2270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="1018" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B121 A123:B123">
-    <cfRule type="duplicateValues" dxfId="1017" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121 B123">
-    <cfRule type="duplicateValues" dxfId="1016" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121 A123">
-    <cfRule type="duplicateValues" dxfId="1015" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="1014" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="1013" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:B122">
-    <cfRule type="duplicateValues" dxfId="1012" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="1011" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A126">
-    <cfRule type="duplicateValues" dxfId="1010" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="1009" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="1008" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A189 A195:A1048576">
-    <cfRule type="duplicateValues" dxfId="1007" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A195:B1048576 A53:B126 A52">
-    <cfRule type="duplicateValues" dxfId="1006" priority="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B189 A195:B1048576">
-    <cfRule type="duplicateValues" dxfId="1005" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A126 A166:A168 A170:A172 A177:A183 A188:A189 A211:A1048576">
+    <cfRule type="duplicateValues" dxfId="1088" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A53:B126 A52 A211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1087" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:B168 A170:B172 A177:B183 A188:B189 A211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1086" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="1004" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="1003" priority="2388"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="2421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="1002" priority="2390"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="2423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="1001" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="1000" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A189 A195:A1048576">
-    <cfRule type="duplicateValues" dxfId="999" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A130 A166:A168 A170:A172 A177:A183 A188:A189 A211:A1048576">
+    <cfRule type="duplicateValues" dxfId="1080" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="998" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576 B53:B130">
-    <cfRule type="duplicateValues" dxfId="997" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B53:B130 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1078" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="996" priority="2526"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="2559"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B130">
-    <cfRule type="duplicateValues" dxfId="995" priority="2527"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A189 A195:A1048576">
-    <cfRule type="duplicateValues" dxfId="994" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="2560"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:A168 A170:A172 A177:A183 A188:A189 A211:A1048576">
+    <cfRule type="duplicateValues" dxfId="1075" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="993" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B136">
-    <cfRule type="duplicateValues" dxfId="992" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="991" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B136">
-    <cfRule type="duplicateValues" dxfId="990" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A136">
-    <cfRule type="duplicateValues" dxfId="989" priority="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A195:B1048576 A53:B136 A52">
-    <cfRule type="duplicateValues" dxfId="988" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576 B53:B136">
-    <cfRule type="duplicateValues" dxfId="987" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A189 A195:A1048576">
-    <cfRule type="duplicateValues" dxfId="986" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B51 A166:B168 A170:B172 A177:B183 A188:B189 A53:B136 A52 A211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1069" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B53:B136 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1068" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A136 A166:A168 A170:A172 A177:A183 A188:A189 A211:A1048576">
+    <cfRule type="duplicateValues" dxfId="1067" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="985" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="984" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="983" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="982" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="981" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B145">
-    <cfRule type="duplicateValues" dxfId="980" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B145">
-    <cfRule type="duplicateValues" dxfId="979" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A145">
-    <cfRule type="duplicateValues" dxfId="978" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B195:B1048576 B53:B145">
-    <cfRule type="duplicateValues" dxfId="977" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B51 B166:B168 B170:B172 B177:B183 B188:B189 B53:B145 B211:B1048576">
+    <cfRule type="duplicateValues" dxfId="1058" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="976" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="975" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="974" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="973" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="972" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:B152">
-    <cfRule type="duplicateValues" dxfId="971" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="970" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A152">
-    <cfRule type="duplicateValues" dxfId="969" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B152">
-    <cfRule type="duplicateValues" dxfId="968" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="967" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 B153 A157:A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="966" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161 A157:A158">
-    <cfRule type="duplicateValues" dxfId="965" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="964" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="963" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161">
-    <cfRule type="duplicateValues" dxfId="962" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="961" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="960" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="959" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:B161 A153:B153 A157:A158 B159:B160 B162">
-    <cfRule type="duplicateValues" dxfId="958" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="957" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="956" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153 B159:B162">
-    <cfRule type="duplicateValues" dxfId="955" priority="2706"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="2739"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="954" priority="2730"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="2763"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A160">
-    <cfRule type="duplicateValues" dxfId="953" priority="2731"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="2764"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="952" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="951" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="950" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A165">
-    <cfRule type="duplicateValues" dxfId="949" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B165">
-    <cfRule type="duplicateValues" dxfId="948" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F51 A53:F96 A52 C52:F52 G3:G965">
-    <cfRule type="duplicateValues" dxfId="947" priority="2818"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 A27 C27:F27 A20:F26 A18:A19 C18:F19 A28:F51 A53:F96 A52 C52:F52 G3:G194 G211:G965">
+    <cfRule type="duplicateValues" dxfId="1028" priority="2851"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="946" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:B172">
-    <cfRule type="duplicateValues" dxfId="945" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="duplicateValues" dxfId="944" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="943" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="942" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="941" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="940" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="939" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="938" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="937" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="936" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="935" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="934" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="933" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="932" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="931" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="930" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="929" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="928" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="927" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:B175">
-    <cfRule type="duplicateValues" dxfId="926" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="925" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="924" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="duplicateValues" dxfId="923" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="922" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="921" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="920" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="919" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="918" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="917" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="916" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="915" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="914" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="913" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="912" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="911" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="910" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="909" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="908" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="907" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:B187 B184:B185">
-    <cfRule type="duplicateValues" dxfId="906" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="905" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="904" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B187">
-    <cfRule type="duplicateValues" dxfId="903" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="902" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="901" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="900" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="899" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="898" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="897" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="896" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="895" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="894" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="893" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="892" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="891" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="890" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="889" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="888" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="887" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="886" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="885" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="duplicateValues" dxfId="884" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="883" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="882" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="881" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="880" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="879" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="878" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="877" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="876" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="875" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="874" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="873" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="872" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="871" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="870" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="869" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="868" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="867" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190:B190">
-    <cfRule type="duplicateValues" dxfId="866" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="865" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="864" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="863" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="862" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="861" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="860" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="859" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="858" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="857" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="856" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="855" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="854" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="853" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="852" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="851" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="850" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="duplicateValues" dxfId="849" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:B194">
-    <cfRule type="duplicateValues" dxfId="848" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="847" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="846" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="845" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="844" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="843" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="duplicateValues" dxfId="842" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="841" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="840" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="duplicateValues" dxfId="839" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:B194">
-    <cfRule type="duplicateValues" dxfId="838" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:B194">
-    <cfRule type="duplicateValues" dxfId="837" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="duplicateValues" dxfId="836" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="835" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="duplicateValues" dxfId="834" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:B194">
-    <cfRule type="duplicateValues" dxfId="833" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="832" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="duplicateValues" dxfId="831" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:B194">
-    <cfRule type="duplicateValues" dxfId="830" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195:G210">
+    <cfRule type="duplicateValues" dxfId="80" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="79" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:B210">
+    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="77" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="76" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="75" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="74" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="73" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="72" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="71" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="70" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="69" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:B210">
+    <cfRule type="duplicateValues" dxfId="68" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:B210">
+    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="66" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="65" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="64" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:B210">
+    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="62" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="61" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="60" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="59" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="57" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="54" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B210">
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:A210">
+    <cfRule type="duplicateValues" dxfId="48" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38165,9 +39447,9 @@
   <dimension ref="A1:G940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38666,7 +39948,7 @@
         <v>399</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>400</v>
+        <v>1020</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39710,10 +40992,10 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="4" t="s">
         <v>951</v>
       </c>
       <c r="G127" s="4" t="str">
@@ -39746,93 +41028,183 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1038</v>
+      </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_Upload_APP", getdata("DAM_Upload_APP"));</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1040</v>
+      </c>
       <c r="G131" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_APP_Submit", getdata("DAM_APP_Submit"));</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1042</v>
+      </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_Select_app", getdata("DAM_Select_app"));</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1044</v>
+      </c>
       <c r="G133" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_EditSelect_app", getdata("DAM_EditSelect_app"));</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1046</v>
+      </c>
       <c r="G134" s="4" t="str">
         <f t="shared" ref="G134:G160" si="3">IF(A134&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A134&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A134&amp;CHAR(34)&amp;"));","")</f>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_Edit_Submit", getdata("DAM_Edit_Submit"));</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1048</v>
+      </c>
       <c r="G135" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_search_icon", getdata("DAM_search_icon"));</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="G136" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_Edit_App_Submit", getdata("DAM_Edit_App_Submit"));</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1052</v>
+      </c>
       <c r="G137" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("DAM_APP_delete_yes", getdata("DAM_APP_delete_yes"));</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1054</v>
+      </c>
       <c r="G138" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Portal_AddUser_button", getdata("Portal_AddUser_button"));</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1056</v>
+      </c>
       <c r="G139" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Portal_Submit_button", getdata("Portal_Submit_button"));</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>1058</v>
+      </c>
       <c r="G140" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("PortalUsers_Search_button", getdata("PortalUsers_Search_button"));</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1060</v>
+      </c>
       <c r="G141" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("PortalUsers_Edit", getdata("PortalUsers_Edit"));</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>1062</v>
+      </c>
       <c r="G142" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Portal_Edit_Submit_button", getdata("Portal_Edit_Submit_button"));</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1064</v>
+      </c>
       <c r="G143" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Portal_Delete_button", getdata("Portal_Delete_button"));</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1066</v>
+      </c>
       <c r="G144" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Browser.WebEdit.Set("Portal_Yes_button", getdata("Portal_Yes_button"));</v>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
@@ -44613,538 +45985,475 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="829" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="828" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="827" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="826" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="825" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="824" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="823" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="822" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="821" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="820" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="819" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="818" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="817" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="816" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="815" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="814" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="813" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="812" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="811" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="810" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="809" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="808" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="807" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="806" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="805" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="804" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="803" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="802" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="801" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="800" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="799" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="798" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="797" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="796" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="795" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="794" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="793" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="792" priority="2078"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="2103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="791" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="790" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="789" priority="2242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B98 A130:B1048576 A125 B129">
-    <cfRule type="duplicateValues" dxfId="788" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125 A1 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="787" priority="2247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A130:B1048576 A125 B129">
-    <cfRule type="duplicateValues" dxfId="786" priority="2250"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B16 A130:B1048576 A125 B129">
-    <cfRule type="duplicateValues" dxfId="785" priority="2254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B19 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="784" priority="2257"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B40 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="783" priority="2260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="782" priority="2263"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="781" priority="2265"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="2267"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B98 A145:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="869" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1 A145:A1048576">
+    <cfRule type="duplicateValues" dxfId="868" priority="2272"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A16:B16 A1:B13 A145:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="867" priority="2275"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B16 A145:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="866" priority="2279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B19 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="865" priority="2282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B40 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="864" priority="2285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="863" priority="2288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A53 A55:A56 A145:A1048576">
+    <cfRule type="duplicateValues" dxfId="862" priority="2290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="780" priority="2269"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B93 B1:B88 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="779" priority="2272"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B93 B1:B91 B98 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="778" priority="2277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125 A1:A98 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="777" priority="2282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A130:B1048576 A125 B129">
-    <cfRule type="duplicateValues" dxfId="776" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="2294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B88 B98 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="860" priority="2297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B93 B1:B91 B98 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="859" priority="2302"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A98 A145:A1048576">
+    <cfRule type="duplicateValues" dxfId="858" priority="2307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A145:B1048576 A125">
+    <cfRule type="duplicateValues" dxfId="857" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B101">
-    <cfRule type="duplicateValues" dxfId="775" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B101 A102">
-    <cfRule type="duplicateValues" dxfId="774" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="773" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125 A1:A102 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="772" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A102 A145:A1048576">
+    <cfRule type="duplicateValues" dxfId="853" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="771" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103">
-    <cfRule type="duplicateValues" dxfId="770" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="769" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125 A1:A103 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="768" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103">
-    <cfRule type="duplicateValues" dxfId="767" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:B124 A1:B101 A130:B1048576 A125 A103:B103 A102 B129">
-    <cfRule type="duplicateValues" dxfId="766" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A125 A1:A103 A145:A1048576">
+    <cfRule type="duplicateValues" dxfId="849" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B103 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="848" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:B124 A1:B101 A145:B1048576 A125 A103:B103 A102">
+    <cfRule type="duplicateValues" dxfId="847" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="765" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="764" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="763" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="762" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="761" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:B104">
-    <cfRule type="duplicateValues" dxfId="760" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B103:B104">
-    <cfRule type="duplicateValues" dxfId="759" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B103:B104 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="840" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="758" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B107 A109:B111 A108">
-    <cfRule type="duplicateValues" dxfId="757" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="756" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A111">
-    <cfRule type="duplicateValues" dxfId="755" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="754" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B107 A109:B111 A108">
-    <cfRule type="duplicateValues" dxfId="753" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B107 B109:B111">
-    <cfRule type="duplicateValues" dxfId="752" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124 B1:B101 B129:B1048576 B109:B111 B103:B107">
-    <cfRule type="duplicateValues" dxfId="751" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124 B1:B101 B109:B111 B103:B107 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="832" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114 A120:B122 A117:A118">
-    <cfRule type="duplicateValues" dxfId="750" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="749" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="748" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="747" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114 B120:B122">
-    <cfRule type="duplicateValues" dxfId="746" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="745" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="744" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118 A112:A114 A120:A122">
-    <cfRule type="duplicateValues" dxfId="743" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="742" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="741" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="740" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="739" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="738" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:A118">
-    <cfRule type="duplicateValues" dxfId="737" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="duplicateValues" dxfId="736" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B114">
-    <cfRule type="duplicateValues" dxfId="735" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="734" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="733" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="732" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="731" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="730" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="729" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="728" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="duplicateValues" dxfId="727" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="726" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="725" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="724" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="723" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="722" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="721" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="720" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="719" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A122 A124:A125 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="718" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A122 A124:A125 A145:A1048576">
+    <cfRule type="duplicateValues" dxfId="799" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="duplicateValues" dxfId="717" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="716" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="715" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="714" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="713" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="712" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="711" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="710" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="709" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="708" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="707" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="706" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="705" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="704" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="703" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="702" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="701" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="700" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="699" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="698" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="697" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="696" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="695" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="694" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="693" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="692" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="691" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="690" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="689" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="688" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="687" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="686" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="685" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="684" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="683" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="682" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="681" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="680" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="679" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="678" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="677" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="676" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="675" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="674" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="673" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="672" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="671" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="670" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="669" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="668" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="667" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="666" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="665" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B128">
-    <cfRule type="duplicateValues" dxfId="664" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="663" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="662" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="661" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="660" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="659" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="658" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="657" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="656" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="655" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="654" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="653" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="652" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A144">
+    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:B144">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45211,16 +46520,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="651" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="650" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="649" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="648" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45233,7 +46542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45516,18 +46825,36 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
@@ -50741,64 +52068,64 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A24:A28">
-    <cfRule type="duplicateValues" dxfId="647" priority="30"/>
+  <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A27:A28">
+    <cfRule type="duplicateValues" dxfId="728" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="646" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="645" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="644" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="643" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="642" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="641" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B24:B1048576">
-    <cfRule type="duplicateValues" dxfId="640" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B1048576 A1:B9 A11:B13">
+    <cfRule type="duplicateValues" dxfId="722" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B13 B27:B1048576">
+    <cfRule type="duplicateValues" dxfId="721" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="639" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B16 A18:B19 A17">
-    <cfRule type="duplicateValues" dxfId="638" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="637" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A19 A24:A1048576">
-    <cfRule type="duplicateValues" dxfId="636" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="635" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B16 A24:B1048576 A18:B19 A17">
-    <cfRule type="duplicateValues" dxfId="634" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="633" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="632" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="631" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="630" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="629" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="628" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A19 A27:A1048576">
+    <cfRule type="duplicateValues" dxfId="717" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B16 A27:B1048576 A18:B19 A17">
+    <cfRule type="duplicateValues" dxfId="715" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="627" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:A26">
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B26">
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B26">
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:A26">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B26">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -50808,11 +52135,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51623,525 +52950,577 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="626" priority="310"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A62 A1 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="625" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="624" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="623" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="322"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62 A1 A65:A66 A69:A1048576">
+    <cfRule type="duplicateValues" dxfId="706" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1 B65:B66 B69:B1048576">
+    <cfRule type="duplicateValues" dxfId="704" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="622" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="621" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="620" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="619" priority="299"/>
-    <cfRule type="duplicateValues" dxfId="618" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="617" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="616" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="615" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="614" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="613" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="612" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="611" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="610" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="609" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="608" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="607" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="606" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="605" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="604" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="603" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="602" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="601" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="600" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="599" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="598" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="597" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="596" priority="268"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A1:B10 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="595" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A1:B10 A65:B66 A69:B1048576">
+    <cfRule type="duplicateValues" dxfId="676" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="594" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="593" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="592" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="591" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="590" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="589" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="588" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="587" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="586" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="585" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="584" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1:B15 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="583" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1:B15 B65:B66 B69:B1048576">
+    <cfRule type="duplicateValues" dxfId="664" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="582" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="581" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="580" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="579" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="578" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="577" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="576" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="575" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="574" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="573" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="572" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="571" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="570" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="569" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="568" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="567" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="566" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="565" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="564" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="563" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="562" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="561" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="560" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="559" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="558" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="557" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="556" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="555" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="729"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="554" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="731"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="553" priority="725"/>
-    <cfRule type="duplicateValues" dxfId="552" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="737"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="738"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="551" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="741"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="550" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="549" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="548" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="547" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="546" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="545" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="544" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1:B26 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="543" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1:B26 B65:B66 B69:B1048576">
+    <cfRule type="duplicateValues" dxfId="624" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="542" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="541" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="540" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="539" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="538" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="536" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="535" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="534" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="533" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="532" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="531" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="530" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="529" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="528" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="527" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="526" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="525" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="524" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="522" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="521" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="520" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="519" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="518" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="517" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="516" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="515" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="514" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="513" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="512" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="511" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="510" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="509" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="508" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="507" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="506" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="505" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="504" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="503" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="502" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="501" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="500" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="499" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="498" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="497" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="496" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="495" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="494" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="493" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="492" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="491" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="490" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="489" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="488" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="487" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="486" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B1:B35 B65:B1048576">
-    <cfRule type="duplicateValues" dxfId="485" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B1:B35 B65:B66 B69:B1048576">
+    <cfRule type="duplicateValues" dxfId="566" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="484" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="483" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="482" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="481" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="480" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="479" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="478" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="477" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="476" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="475" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="474" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="473" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A62 A1:A43 A65:A1048576">
-    <cfRule type="duplicateValues" dxfId="472" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62 A1:A43 A65:A66 A69:A1048576">
+    <cfRule type="duplicateValues" dxfId="553" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="471" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="470" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="469" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="468" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="467" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="466" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="465" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A1:B47 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="464" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A1:B47 A65:B66 A69:B1048576">
+    <cfRule type="duplicateValues" dxfId="545" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="463" priority="2252"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="2264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="462" priority="2255"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="2267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="461" priority="2256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="460" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="459" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B62 A1:B49 A65:B1048576">
-    <cfRule type="duplicateValues" dxfId="458" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="2268"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A65:B66 A69:B1048576">
+    <cfRule type="duplicateValues" dxfId="541" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A65:B66 A69:B1048576">
+    <cfRule type="duplicateValues" dxfId="540" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B62 A1:B49 A65:B66 A69:B1048576">
+    <cfRule type="duplicateValues" dxfId="539" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="duplicateValues" dxfId="457" priority="2455"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="2467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="456" priority="2461"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="2473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="455" priority="2463"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="2475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="duplicateValues" dxfId="454" priority="2469"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="453" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="452" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="451" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="450" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="449" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="448" priority="2620"/>
-    <cfRule type="duplicateValues" dxfId="447" priority="2621"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="2632"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="2633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B59">
-    <cfRule type="duplicateValues" dxfId="446" priority="2622"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="2634"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B59">
-    <cfRule type="duplicateValues" dxfId="445" priority="2623"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="2635"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A59">
-    <cfRule type="duplicateValues" dxfId="444" priority="2627"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="2639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="443" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="442" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="441" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="440" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="439" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="438" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="437" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="436" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="435" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="434" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B68">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B68">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B68">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B68">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B68">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54466,1220 +55845,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -61642,7 +63021,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61731,7 +63110,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
